--- a/Output/Extracted.xlsx
+++ b/Output/Extracted.xlsx
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M171"/>
+  <dimension ref="A1:N171"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -423,6 +423,9 @@
       <c r="M1" t="str">
         <v>LODescription</v>
       </c>
+      <c r="N1" t="str">
+        <v>Text Box</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -456,13 +459,16 @@
         <v/>
       </c>
       <c r="K2" t="str">
-        <v>WK</v>
+        <v>Comprehensive Problem</v>
       </c>
       <c r="L2" t="str">
         <v/>
       </c>
       <c r="M2" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+      <c r="N2" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="3">
@@ -505,6 +511,9 @@
       <c r="M3" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N3" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
@@ -538,13 +547,16 @@
         <v/>
       </c>
       <c r="K4" t="str">
-        <v>Worksheet</v>
+        <v>Comprehensive Problem</v>
       </c>
       <c r="L4" t="str">
         <v/>
       </c>
       <c r="M4" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+      <c r="N4" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="5">
@@ -587,6 +599,9 @@
       <c r="M5" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N5" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
@@ -620,13 +635,16 @@
         <v/>
       </c>
       <c r="K6" t="str">
-        <v>Worksheet</v>
+        <v>Comprehensive Problem</v>
       </c>
       <c r="L6" t="str">
         <v/>
       </c>
       <c r="M6" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+      <c r="N6" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="7">
@@ -661,13 +679,16 @@
         <v/>
       </c>
       <c r="K7" t="str">
-        <v>WK</v>
+        <v>Comprehensive Problem</v>
       </c>
       <c r="L7" t="str">
         <v/>
       </c>
       <c r="M7" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+      <c r="N7" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="8">
@@ -710,6 +731,9 @@
       <c r="M8" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N8" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
@@ -751,6 +775,9 @@
       <c r="M9" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N9" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
@@ -784,13 +811,16 @@
         <v/>
       </c>
       <c r="K10" t="str">
-        <v>WK</v>
+        <v>Comprehensive Problem</v>
       </c>
       <c r="L10" t="str">
         <v/>
       </c>
       <c r="M10" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+      <c r="N10" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="11">
@@ -833,6 +863,9 @@
       <c r="M11" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N11" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
@@ -874,6 +907,9 @@
       <c r="M12" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N12" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
@@ -907,13 +943,16 @@
         <v/>
       </c>
       <c r="K13" t="str">
-        <v>Worksheet</v>
+        <v>Comprehensive Problem</v>
       </c>
       <c r="L13" t="str">
         <v/>
       </c>
       <c r="M13" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+      <c r="N13" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="14">
@@ -956,6 +995,9 @@
       <c r="M14" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N14" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
@@ -997,6 +1039,9 @@
       <c r="M15" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N15" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
@@ -1030,13 +1075,16 @@
         <v/>
       </c>
       <c r="K16" t="str">
-        <v>Worksheet</v>
+        <v>Comprehensive Problem</v>
       </c>
       <c r="L16" t="str">
         <v/>
       </c>
       <c r="M16" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+      <c r="N16" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="17">
@@ -1071,13 +1119,16 @@
         <v/>
       </c>
       <c r="K17" t="str">
-        <v>Worksheet</v>
+        <v>Comprehensive Problem</v>
       </c>
       <c r="L17" t="str">
         <v/>
       </c>
       <c r="M17" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+      <c r="N17" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="18">
@@ -1120,6 +1171,9 @@
       <c r="M18" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N18" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
@@ -1161,6 +1215,9 @@
       <c r="M19" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N19" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
@@ -1194,13 +1251,16 @@
         <v/>
       </c>
       <c r="K20" t="str">
-        <v>Worksheet</v>
+        <v>Comprehensive Problem</v>
       </c>
       <c r="L20" t="str">
         <v/>
       </c>
       <c r="M20" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+      <c r="N20" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="21">
@@ -1235,13 +1295,16 @@
         <v/>
       </c>
       <c r="K21" t="str">
-        <v>Worksheet</v>
+        <v>Comprehensive Problem</v>
       </c>
       <c r="L21" t="str">
         <v/>
       </c>
       <c r="M21" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+      <c r="N21" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="22">
@@ -1276,13 +1339,16 @@
         <v/>
       </c>
       <c r="K22" t="str">
-        <v>Worksheet</v>
+        <v>Comprehensive Problem</v>
       </c>
       <c r="L22" t="str">
         <v/>
       </c>
       <c r="M22" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+      <c r="N22" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="23">
@@ -1317,13 +1383,16 @@
         <v/>
       </c>
       <c r="K23" t="str">
-        <v>Worksheet</v>
+        <v>Comprehensive Problem</v>
       </c>
       <c r="L23" t="str">
         <v/>
       </c>
       <c r="M23" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+      <c r="N23" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="24">
@@ -1358,13 +1427,16 @@
         <v/>
       </c>
       <c r="K24" t="str">
-        <v>Worksheet</v>
+        <v>Comprehensive Problem</v>
       </c>
       <c r="L24" t="str">
         <v/>
       </c>
       <c r="M24" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+      <c r="N24" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="25">
@@ -1399,13 +1471,16 @@
         <v/>
       </c>
       <c r="K25" t="str">
-        <v>Worksheet</v>
+        <v>Comprehensive Problem</v>
       </c>
       <c r="L25" t="str">
         <v/>
       </c>
       <c r="M25" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+      <c r="N25" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="26">
@@ -1440,13 +1515,16 @@
         <v/>
       </c>
       <c r="K26" t="str">
-        <v>Worksheet</v>
+        <v>Comprehensive Problem</v>
       </c>
       <c r="L26" t="str">
         <v/>
       </c>
       <c r="M26" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+      <c r="N26" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="27">
@@ -1481,13 +1559,16 @@
         <v/>
       </c>
       <c r="K27" t="str">
-        <v>Worksheet</v>
+        <v>Comprehensive Problem</v>
       </c>
       <c r="L27" t="str">
         <v/>
       </c>
       <c r="M27" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+      </c>
+      <c r="N27" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="28">
@@ -1530,6 +1611,9 @@
       <c r="M28" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
+      <c r="N28" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
@@ -1571,6 +1655,9 @@
       <c r="M29" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
+      <c r="N29" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
@@ -1612,6 +1699,9 @@
       <c r="M30" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
+      <c r="N30" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
@@ -1653,6 +1743,9 @@
       <c r="M31" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
+      <c r="N31" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
@@ -1694,6 +1787,9 @@
       <c r="M32" t="str">
         <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N32" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
@@ -1735,6 +1831,9 @@
       <c r="M33" t="str">
         <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N33" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
@@ -1776,6 +1875,9 @@
       <c r="M34" t="str">
         <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N34" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
@@ -1817,6 +1919,9 @@
       <c r="M35" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
+      <c r="N35" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
@@ -1858,6 +1963,9 @@
       <c r="M36" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
+      <c r="N36" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
@@ -1899,6 +2007,9 @@
       <c r="M37" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
+      <c r="N37" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
@@ -1940,6 +2051,9 @@
       <c r="M38" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
+      <c r="N38" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
@@ -1981,6 +2095,9 @@
       <c r="M39" t="str">
         <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N39" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
@@ -2022,6 +2139,9 @@
       <c r="M40" t="str">
         <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N40" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
@@ -2063,6 +2183,9 @@
       <c r="M41" t="str">
         <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N41" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
@@ -2104,6 +2227,9 @@
       <c r="M42" t="str">
         <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N42" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
@@ -2145,6 +2271,9 @@
       <c r="M43" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
+      <c r="N43" t="str">
+        <v>True</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="str">
@@ -2186,6 +2315,9 @@
       <c r="M44" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
+      <c r="N44" t="str">
+        <v>True</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="str">
@@ -2227,6 +2359,9 @@
       <c r="M45" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
+      <c r="N45" t="str">
+        <v>True</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="str">
@@ -2268,6 +2403,9 @@
       <c r="M46" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
+      <c r="N46" t="str">
+        <v>True</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="str">
@@ -2309,6 +2447,9 @@
       <c r="M47" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
+      <c r="N47" t="str">
+        <v>True</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="str">
@@ -2350,6 +2491,9 @@
       <c r="M48" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
+      <c r="N48" t="str">
+        <v>True</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="str">
@@ -2391,6 +2535,9 @@
       <c r="M49" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
+      <c r="N49" t="str">
+        <v>True</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="str">
@@ -2432,6 +2579,9 @@
       <c r="M50" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
+      <c r="N50" t="str">
+        <v>True</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="str">
@@ -2473,6 +2623,9 @@
       <c r="M51" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
+      <c r="N51" t="str">
+        <v>True</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="str">
@@ -2514,6 +2667,9 @@
       <c r="M52" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
+      <c r="N52" t="str">
+        <v>True</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="str">
@@ -2555,6 +2711,9 @@
       <c r="M53" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
+      <c r="N53" t="str">
+        <v>True</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="str">
@@ -2596,6 +2755,9 @@
       <c r="M54" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
+      <c r="N54" t="str">
+        <v>True</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="str">
@@ -2637,6 +2799,9 @@
       <c r="M55" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
+      <c r="N55" t="str">
+        <v>True</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="str">
@@ -2678,6 +2843,9 @@
       <c r="M56" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
+      <c r="N56" t="str">
+        <v>True</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
@@ -2719,6 +2887,9 @@
       <c r="M57" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
+      <c r="N57" t="str">
+        <v>True</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
@@ -2760,6 +2931,9 @@
       <c r="M58" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
+      <c r="N58" t="str">
+        <v>True</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
@@ -2801,6 +2975,9 @@
       <c r="M59" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
+      <c r="N59" t="str">
+        <v>True</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
@@ -2842,6 +3019,9 @@
       <c r="M60" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
+      <c r="N60" t="str">
+        <v>True</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
@@ -2883,6 +3063,9 @@
       <c r="M61" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
+      <c r="N61" t="str">
+        <v>True</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
@@ -2924,6 +3107,9 @@
       <c r="M62" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
+      <c r="N62" t="str">
+        <v>True</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
@@ -2965,6 +3151,9 @@
       <c r="M63" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
+      <c r="N63" t="str">
+        <v>True</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
@@ -3006,6 +3195,9 @@
       <c r="M64" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
+      <c r="N64" t="str">
+        <v>True</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
@@ -3047,6 +3239,9 @@
       <c r="M65" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
+      <c r="N65" t="str">
+        <v>True</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
@@ -3088,6 +3283,9 @@
       <c r="M66" t="str">
         <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N66" t="str">
+        <v>True</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
@@ -3129,6 +3327,9 @@
       <c r="M67" t="str">
         <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N67" t="str">
+        <v>True</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
@@ -3170,6 +3371,9 @@
       <c r="M68" t="str">
         <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N68" t="str">
+        <v>True</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
@@ -3211,6 +3415,9 @@
       <c r="M69" t="str">
         <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N69" t="str">
+        <v>True</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
@@ -3252,6 +3459,9 @@
       <c r="M70" t="str">
         <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N70" t="str">
+        <v>True</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
@@ -3293,6 +3503,9 @@
       <c r="M71" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
+      <c r="N71" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="str">
@@ -3334,6 +3547,9 @@
       <c r="M72" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
+      <c r="N72" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="str">
@@ -3375,6 +3591,9 @@
       <c r="M73" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
+      <c r="N73" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="str">
@@ -3408,13 +3627,16 @@
         <v/>
       </c>
       <c r="K74" t="str">
-        <v>WK</v>
+        <v>Problem</v>
       </c>
       <c r="L74" t="str">
         <v/>
       </c>
       <c r="M74" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+      </c>
+      <c r="N74" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="75">
@@ -3449,13 +3671,16 @@
         <v/>
       </c>
       <c r="K75" t="str">
-        <v>WK</v>
+        <v>Problem</v>
       </c>
       <c r="L75" t="str">
         <v/>
       </c>
       <c r="M75" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+      </c>
+      <c r="N75" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="76">
@@ -3490,13 +3715,16 @@
         <v/>
       </c>
       <c r="K76" t="str">
-        <v>WK</v>
+        <v>Problem</v>
       </c>
       <c r="L76" t="str">
         <v/>
       </c>
       <c r="M76" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+      </c>
+      <c r="N76" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="77">
@@ -3539,6 +3767,9 @@
       <c r="M77" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
+      <c r="N77" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="str">
@@ -3572,13 +3803,16 @@
         <v/>
       </c>
       <c r="K78" t="str">
-        <v>WK</v>
+        <v>Problem</v>
       </c>
       <c r="L78" t="str">
         <v/>
       </c>
       <c r="M78" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+      </c>
+      <c r="N78" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="79">
@@ -3613,13 +3847,16 @@
         <v/>
       </c>
       <c r="K79" t="str">
-        <v>WK</v>
+        <v>Problem</v>
       </c>
       <c r="L79" t="str">
         <v/>
       </c>
       <c r="M79" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+      </c>
+      <c r="N79" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="80">
@@ -3654,13 +3891,16 @@
         <v/>
       </c>
       <c r="K80" t="str">
-        <v>WK</v>
+        <v>Problem</v>
       </c>
       <c r="L80" t="str">
         <v/>
       </c>
       <c r="M80" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+      </c>
+      <c r="N80" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="81">
@@ -3695,13 +3935,16 @@
         <v/>
       </c>
       <c r="K81" t="str">
-        <v>WK</v>
+        <v>Problem</v>
       </c>
       <c r="L81" t="str">
         <v/>
       </c>
       <c r="M81" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+      </c>
+      <c r="N81" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="82">
@@ -3736,13 +3979,16 @@
         <v/>
       </c>
       <c r="K82" t="str">
-        <v>WK</v>
+        <v>Problem</v>
       </c>
       <c r="L82" t="str">
         <v/>
       </c>
       <c r="M82" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+      </c>
+      <c r="N82" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="83">
@@ -3785,6 +4031,9 @@
       <c r="M83" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
+      <c r="N83" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="str">
@@ -3818,13 +4067,16 @@
         <v/>
       </c>
       <c r="K84" t="str">
-        <v>Worksheet</v>
+        <v>Problem</v>
       </c>
       <c r="L84" t="str">
         <v/>
       </c>
       <c r="M84" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+      </c>
+      <c r="N84" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="85">
@@ -3859,13 +4111,16 @@
         <v/>
       </c>
       <c r="K85" t="str">
-        <v>WK</v>
+        <v>Problem</v>
       </c>
       <c r="L85" t="str">
         <v/>
       </c>
       <c r="M85" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+      </c>
+      <c r="N85" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="86">
@@ -3900,13 +4155,16 @@
         <v/>
       </c>
       <c r="K86" t="str">
-        <v>WK</v>
+        <v>Problem</v>
       </c>
       <c r="L86" t="str">
         <v/>
       </c>
       <c r="M86" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+      </c>
+      <c r="N86" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="87">
@@ -3941,13 +4199,16 @@
         <v/>
       </c>
       <c r="K87" t="str">
-        <v>WK</v>
+        <v>Problem</v>
       </c>
       <c r="L87" t="str">
         <v/>
       </c>
       <c r="M87" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+      </c>
+      <c r="N87" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="88">
@@ -3982,13 +4243,16 @@
         <v/>
       </c>
       <c r="K88" t="str">
-        <v>WK</v>
+        <v>Problem</v>
       </c>
       <c r="L88" t="str">
         <v/>
       </c>
       <c r="M88" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+      </c>
+      <c r="N88" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="89">
@@ -4031,6 +4295,9 @@
       <c r="M89" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
+      <c r="N89" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="str">
@@ -4064,13 +4331,16 @@
         <v/>
       </c>
       <c r="K90" t="str">
-        <v>Worksheet</v>
+        <v>Problem</v>
       </c>
       <c r="L90" t="str">
         <v/>
       </c>
       <c r="M90" t="str">
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
+      </c>
+      <c r="N90" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="91">
@@ -4113,6 +4383,9 @@
       <c r="M91" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
+      <c r="N91" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="str">
@@ -4154,6 +4427,9 @@
       <c r="M92" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
+      <c r="N92" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="str">
@@ -4195,6 +4471,9 @@
       <c r="M93" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
+      <c r="N93" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="str">
@@ -4236,6 +4515,9 @@
       <c r="M94" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
+      <c r="N94" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="str">
@@ -4277,6 +4559,9 @@
       <c r="M95" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
+      <c r="N95" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="str">
@@ -4318,6 +4603,9 @@
       <c r="M96" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
+      <c r="N96" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="str">
@@ -4359,6 +4647,9 @@
       <c r="M97" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
+      <c r="N97" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="str">
@@ -4400,6 +4691,9 @@
       <c r="M98" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
+      <c r="N98" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="str">
@@ -4441,6 +4735,9 @@
       <c r="M99" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
+      <c r="N99" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="str">
@@ -4482,6 +4779,9 @@
       <c r="M100" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
+      <c r="N100" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="str">
@@ -4523,6 +4823,9 @@
       <c r="M101" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
+      <c r="N101" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="str">
@@ -4564,6 +4867,9 @@
       <c r="M102" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
+      <c r="N102" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="str">
@@ -4605,6 +4911,9 @@
       <c r="M103" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
+      <c r="N103" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="str">
@@ -4646,6 +4955,9 @@
       <c r="M104" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
+      <c r="N104" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="str">
@@ -4687,6 +4999,9 @@
       <c r="M105" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
+      <c r="N105" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="str">
@@ -4728,6 +5043,9 @@
       <c r="M106" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
+      <c r="N106" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="str">
@@ -4769,6 +5087,9 @@
       <c r="M107" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
+      <c r="N107" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="str">
@@ -4810,6 +5131,9 @@
       <c r="M108" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
+      <c r="N108" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="str">
@@ -4851,6 +5175,9 @@
       <c r="M109" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
+      <c r="N109" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="str">
@@ -4892,6 +5219,9 @@
       <c r="M110" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
+      <c r="N110" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="str">
@@ -4933,6 +5263,9 @@
       <c r="M111" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
+      <c r="N111" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="str">
@@ -4974,6 +5307,9 @@
       <c r="M112" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
+      <c r="N112" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="str">
@@ -5015,6 +5351,9 @@
       <c r="M113" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
+      <c r="N113" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="str">
@@ -5056,6 +5395,9 @@
       <c r="M114" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
+      <c r="N114" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="str">
@@ -5097,6 +5439,9 @@
       <c r="M115" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
+      <c r="N115" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="str">
@@ -5138,6 +5483,9 @@
       <c r="M116" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
+      <c r="N116" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="str">
@@ -5179,6 +5527,9 @@
       <c r="M117" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
+      <c r="N117" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="str">
@@ -5220,6 +5571,9 @@
       <c r="M118" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N118" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="str">
@@ -5261,6 +5615,9 @@
       <c r="M119" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N119" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="str">
@@ -5302,6 +5659,9 @@
       <c r="M120" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N120" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="str">
@@ -5343,6 +5703,9 @@
       <c r="M121" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N121" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="str">
@@ -5384,6 +5747,9 @@
       <c r="M122" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N122" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="str">
@@ -5425,6 +5791,9 @@
       <c r="M123" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N123" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="str">
@@ -5466,6 +5835,9 @@
       <c r="M124" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N124" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="str">
@@ -5507,6 +5879,9 @@
       <c r="M125" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N125" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="str">
@@ -5548,6 +5923,9 @@
       <c r="M126" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N126" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="str">
@@ -5589,6 +5967,9 @@
       <c r="M127" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N127" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="str">
@@ -5630,6 +6011,9 @@
       <c r="M128" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N128" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="str">
@@ -5671,6 +6055,9 @@
       <c r="M129" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N129" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="str">
@@ -5712,6 +6099,9 @@
       <c r="M130" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N130" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="str">
@@ -5753,6 +6143,9 @@
       <c r="M131" t="str">
         <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N131" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="str">
@@ -5794,6 +6187,9 @@
       <c r="M132" t="str">
         <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N132" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="str">
@@ -5835,6 +6231,9 @@
       <c r="M133" t="str">
         <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N133" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="str">
@@ -5876,6 +6275,9 @@
       <c r="M134" t="str">
         <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N134" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="str">
@@ -5917,6 +6319,9 @@
       <c r="M135" t="str">
         <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N135" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="str">
@@ -5958,6 +6363,9 @@
       <c r="M136" t="str">
         <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N136" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="str">
@@ -5999,6 +6407,9 @@
       <c r="M137" t="str">
         <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N137" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="str">
@@ -6040,6 +6451,9 @@
       <c r="M138" t="str">
         <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N138" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="str">
@@ -6081,6 +6495,9 @@
       <c r="M139" t="str">
         <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N139" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="str">
@@ -6122,6 +6539,9 @@
       <c r="M140" t="str">
         <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N140" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="str">
@@ -6163,6 +6583,9 @@
       <c r="M141" t="str">
         <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N141" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="str">
@@ -6204,6 +6627,9 @@
       <c r="M142" t="str">
         <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N142" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="str">
@@ -6245,6 +6671,9 @@
       <c r="M143" t="str">
         <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N143" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="str">
@@ -6286,6 +6715,9 @@
       <c r="M144" t="str">
         <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N144" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="str">
@@ -6327,6 +6759,9 @@
       <c r="M145" t="str">
         <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N145" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="str">
@@ -6368,6 +6803,9 @@
       <c r="M146" t="str">
         <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N146" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="str">
@@ -6409,6 +6847,9 @@
       <c r="M147" t="str">
         <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N147" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="str">
@@ -6450,6 +6891,9 @@
       <c r="M148" t="str">
         <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N148" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="str">
@@ -6491,6 +6935,9 @@
       <c r="M149" t="str">
         <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N149" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="str">
@@ -6532,6 +6979,9 @@
       <c r="M150" t="str">
         <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N150" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="str">
@@ -6573,6 +7023,9 @@
       <c r="M151" t="str">
         <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N151" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="str">
@@ -6606,13 +7059,16 @@
         <v/>
       </c>
       <c r="K152" t="str">
-        <v>WK</v>
+        <v>Problem</v>
       </c>
       <c r="L152" t="str">
         <v/>
       </c>
       <c r="M152" t="str">
         <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+      <c r="N152" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="153">
@@ -6647,13 +7103,16 @@
         <v/>
       </c>
       <c r="K153" t="str">
-        <v>WK</v>
+        <v>Problem</v>
       </c>
       <c r="L153" t="str">
         <v/>
       </c>
       <c r="M153" t="str">
         <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+      <c r="N153" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="154">
@@ -6688,13 +7147,16 @@
         <v/>
       </c>
       <c r="K154" t="str">
-        <v>WK</v>
+        <v>Problem</v>
       </c>
       <c r="L154" t="str">
         <v/>
       </c>
       <c r="M154" t="str">
         <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+      <c r="N154" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="155">
@@ -6729,13 +7191,16 @@
         <v/>
       </c>
       <c r="K155" t="str">
-        <v>WK</v>
+        <v>Problem</v>
       </c>
       <c r="L155" t="str">
         <v/>
       </c>
       <c r="M155" t="str">
         <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+      <c r="N155" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="156">
@@ -6770,13 +7235,16 @@
         <v/>
       </c>
       <c r="K156" t="str">
-        <v>WK</v>
+        <v>Problem</v>
       </c>
       <c r="L156" t="str">
         <v/>
       </c>
       <c r="M156" t="str">
         <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+      <c r="N156" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="157">
@@ -6819,6 +7287,9 @@
       <c r="M157" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N157" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="str">
@@ -6860,6 +7331,9 @@
       <c r="M158" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N158" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="str">
@@ -6901,6 +7375,9 @@
       <c r="M159" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N159" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="str">
@@ -6942,6 +7419,9 @@
       <c r="M160" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N160" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="str">
@@ -6983,6 +7463,9 @@
       <c r="M161" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N161" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="str">
@@ -7024,6 +7507,9 @@
       <c r="M162" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N162" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="str">
@@ -7065,6 +7551,9 @@
       <c r="M163" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N163" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="str">
@@ -7106,6 +7595,9 @@
       <c r="M164" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N164" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="str">
@@ -7147,6 +7639,9 @@
       <c r="M165" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N165" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="str">
@@ -7188,6 +7683,9 @@
       <c r="M166" t="str">
         <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N166" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="str">
@@ -7221,13 +7719,16 @@
         <v/>
       </c>
       <c r="K167" t="str">
-        <v>WK</v>
+        <v>Problem</v>
       </c>
       <c r="L167" t="str">
         <v/>
       </c>
       <c r="M167" t="str">
         <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+      <c r="N167" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="168">
@@ -7262,13 +7763,16 @@
         <v/>
       </c>
       <c r="K168" t="str">
-        <v>WK</v>
+        <v>Problem</v>
       </c>
       <c r="L168" t="str">
         <v/>
       </c>
       <c r="M168" t="str">
         <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+      <c r="N168" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="169">
@@ -7303,13 +7807,16 @@
         <v/>
       </c>
       <c r="K169" t="str">
-        <v>WK</v>
+        <v>Problem</v>
       </c>
       <c r="L169" t="str">
         <v/>
       </c>
       <c r="M169" t="str">
         <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+      <c r="N169" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="170">
@@ -7344,13 +7851,16 @@
         <v/>
       </c>
       <c r="K170" t="str">
-        <v>WK</v>
+        <v>Problem</v>
       </c>
       <c r="L170" t="str">
         <v/>
       </c>
       <c r="M170" t="str">
         <v>04-03  Determine a taxpayer's filing status.</v>
+      </c>
+      <c r="N170" t="str">
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="171">
@@ -7393,11 +7903,14 @@
       <c r="M171" t="str">
         <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
+      <c r="N171" t="str">
+        <v xml:space="preserve"> </v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:M171"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N171"/>
   </ignoredErrors>
 </worksheet>
 </file>

--- a/Output/Extracted.xlsx
+++ b/Output/Extracted.xlsx
@@ -378,7 +378,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N171"/>
+  <dimension ref="A1:N156"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -1573,7 +1573,7 @@
     </row>
     <row r="28">
       <c r="A28" t="str">
-        <v>TF Qu. 01 Income-related items are excluded from gross...</v>
+        <v>Discussion Question 4-1 (LO 4-1)</v>
       </c>
       <c r="B28" t="str">
         <v>04-01</v>
@@ -1582,19 +1582,19 @@
         <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D28" t="str">
-        <v>Reflective Thinking</v>
+        <v>Analytical Thinking</v>
       </c>
       <c r="E28" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F28" t="str">
         <v/>
       </c>
       <c r="G28" t="str">
-        <v>Understand</v>
+        <v>Apply</v>
       </c>
       <c r="H28" t="str">
-        <v>1 Easy</v>
+        <v>2 Medium</v>
       </c>
       <c r="I28" t="str">
         <v>10 min.</v>
@@ -1603,7 +1603,7 @@
         <v/>
       </c>
       <c r="K28" t="str">
-        <v>TF</v>
+        <v>Essay</v>
       </c>
       <c r="L28" t="str">
         <v/>
@@ -1612,12 +1612,12 @@
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
       <c r="N28" t="str">
-        <v xml:space="preserve"> </v>
+        <v>True</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="str">
-        <v>TF Qu. 02 For 2019 it is not important...</v>
+        <v>Discussion Question 4-2 (LO 4-1)</v>
       </c>
       <c r="B29" t="str">
         <v>04-01</v>
@@ -1626,28 +1626,28 @@
         <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D29" t="str">
-        <v>Reflective Thinking</v>
+        <v>Analytical Thinking</v>
       </c>
       <c r="E29" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F29" t="str">
         <v/>
       </c>
       <c r="G29" t="str">
-        <v>Understand</v>
+        <v>Apply</v>
       </c>
       <c r="H29" t="str">
         <v>2 Medium</v>
       </c>
       <c r="I29" t="str">
-        <v>15 min.</v>
+        <v>10 min.</v>
       </c>
       <c r="J29" t="str">
         <v/>
       </c>
       <c r="K29" t="str">
-        <v>TF</v>
+        <v>Essay</v>
       </c>
       <c r="L29" t="str">
         <v/>
@@ -1656,232 +1656,232 @@
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
       <c r="N29" t="str">
-        <v xml:space="preserve"> </v>
+        <v>True</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="str">
-        <v>TF Qu. 03 In prior years, John was single...</v>
+        <v>Discussion Question 4-3 (LO 4-1)</v>
       </c>
       <c r="B30" t="str">
-        <v>04-02</v>
+        <v>04-01</v>
       </c>
       <c r="C30" t="str">
-        <v>Dependents of the Taxpayer</v>
+        <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D30" t="str">
-        <v>Reflective Thinking</v>
+        <v>Analytical Thinking</v>
       </c>
       <c r="E30" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F30" t="str">
         <v/>
       </c>
       <c r="G30" t="str">
-        <v>Understand</v>
+        <v>Apply</v>
       </c>
       <c r="H30" t="str">
-        <v>3 Hard</v>
+        <v>2 Medium</v>
       </c>
       <c r="I30" t="str">
-        <v>15 min.</v>
+        <v>10 min.</v>
       </c>
       <c r="J30" t="str">
         <v/>
       </c>
       <c r="K30" t="str">
-        <v>TF</v>
+        <v>Essay</v>
       </c>
       <c r="L30" t="str">
         <v/>
       </c>
       <c r="M30" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
       <c r="N30" t="str">
-        <v xml:space="preserve"> </v>
+        <v>True</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="str">
-        <v>TF Qu. 04 A temporary absence from the taxpayer&amp;#8217;s...</v>
+        <v>Discussion Question 4-4 (LO 4-1)</v>
       </c>
       <c r="B31" t="str">
-        <v>04-02</v>
+        <v>04-01</v>
       </c>
       <c r="C31" t="str">
-        <v>Dependents of the Taxpayer</v>
+        <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D31" t="str">
-        <v>Reflective Thinking</v>
+        <v>Analytical Thinking</v>
       </c>
       <c r="E31" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F31" t="str">
         <v/>
       </c>
       <c r="G31" t="str">
-        <v>Understand</v>
+        <v>Apply</v>
       </c>
       <c r="H31" t="str">
         <v>2 Medium</v>
       </c>
       <c r="I31" t="str">
-        <v>15 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J31" t="str">
         <v/>
       </c>
       <c r="K31" t="str">
-        <v>TF</v>
+        <v>Essay</v>
       </c>
       <c r="L31" t="str">
         <v/>
       </c>
       <c r="M31" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
       <c r="N31" t="str">
-        <v xml:space="preserve"> </v>
+        <v>True</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="str">
-        <v>TF Qu. 05 For purposes of determining filing status,...</v>
+        <v>Discussion Question 4-5 (LO 4-1)</v>
       </c>
       <c r="B32" t="str">
-        <v>04-03</v>
+        <v>04-01</v>
       </c>
       <c r="C32" t="str">
-        <v>Filing Status</v>
+        <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D32" t="str">
-        <v>Reflective Thinking</v>
+        <v>Analytical Thinking</v>
       </c>
       <c r="E32" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F32" t="str">
         <v/>
       </c>
       <c r="G32" t="str">
-        <v>Understand</v>
+        <v>Apply</v>
       </c>
       <c r="H32" t="str">
-        <v>1 Easy</v>
+        <v>2 Medium</v>
       </c>
       <c r="I32" t="str">
-        <v>10 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J32" t="str">
         <v/>
       </c>
       <c r="K32" t="str">
-        <v>TF</v>
+        <v>Essay</v>
       </c>
       <c r="L32" t="str">
         <v/>
       </c>
       <c r="M32" t="str">
-        <v>04-03  Determine a taxpayer's filing status.</v>
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
       <c r="N32" t="str">
-        <v xml:space="preserve"> </v>
+        <v>True</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="str">
-        <v>TF Qu. 06 If spouses are filing separate returns,...</v>
+        <v>Discussion Question 4-6 (LO 4-1)</v>
       </c>
       <c r="B33" t="str">
-        <v>04-03</v>
+        <v>04-01</v>
       </c>
       <c r="C33" t="str">
-        <v>Filing Status</v>
+        <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D33" t="str">
-        <v>Reflective Thinking</v>
+        <v>Analytical Thinking</v>
       </c>
       <c r="E33" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F33" t="str">
         <v/>
       </c>
       <c r="G33" t="str">
-        <v>Analyze</v>
+        <v>Apply</v>
       </c>
       <c r="H33" t="str">
-        <v>3 Hard</v>
+        <v>2 Medium</v>
       </c>
       <c r="I33" t="str">
-        <v>35 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J33" t="str">
         <v/>
       </c>
       <c r="K33" t="str">
-        <v>TF</v>
+        <v>Essay</v>
       </c>
       <c r="L33" t="str">
         <v/>
       </c>
       <c r="M33" t="str">
-        <v>04-03  Determine a taxpayer's filing status.</v>
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
       <c r="N33" t="str">
-        <v xml:space="preserve"> </v>
+        <v>True</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="str">
-        <v>MC Qu. 07 Trudy and Ben file a joint...</v>
+        <v>Discussion Question 4-7 (LO 4-1)</v>
       </c>
       <c r="B34" t="str">
-        <v>04-03</v>
+        <v>04-01</v>
       </c>
       <c r="C34" t="str">
-        <v>Filing Status</v>
+        <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D34" t="str">
-        <v>Reflective Thinking</v>
+        <v>Analytical Thinking</v>
       </c>
       <c r="E34" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F34" t="str">
         <v/>
       </c>
       <c r="G34" t="str">
-        <v>Analyze</v>
+        <v>Apply</v>
       </c>
       <c r="H34" t="str">
         <v>2 Medium</v>
       </c>
       <c r="I34" t="str">
-        <v>15 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J34" t="str">
         <v/>
       </c>
       <c r="K34" t="str">
-        <v>MC</v>
+        <v>Essay</v>
       </c>
       <c r="L34" t="str">
         <v/>
       </c>
       <c r="M34" t="str">
-        <v>04-03  Determine a taxpayer's filing status.</v>
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
       <c r="N34" t="str">
-        <v xml:space="preserve"> </v>
+        <v>True</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="str">
-        <v>MC Qu. 08 James received $25,000 of compensation from...</v>
+        <v>Discussion Question 4-8 (LO 4-1)</v>
       </c>
       <c r="B35" t="str">
         <v>04-01</v>
@@ -1890,28 +1890,28 @@
         <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D35" t="str">
-        <v>Reflective Thinking, Analytical Thinking</v>
+        <v>Analytical Thinking</v>
       </c>
       <c r="E35" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F35" t="str">
         <v/>
       </c>
       <c r="G35" t="str">
-        <v>Analyze</v>
+        <v>Apply</v>
       </c>
       <c r="H35" t="str">
-        <v>1 Easy</v>
+        <v>2 Medium</v>
       </c>
       <c r="I35" t="str">
-        <v>10 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J35" t="str">
         <v/>
       </c>
       <c r="K35" t="str">
-        <v>MC</v>
+        <v>Essay</v>
       </c>
       <c r="L35" t="str">
         <v/>
@@ -1920,12 +1920,12 @@
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
       <c r="N35" t="str">
-        <v xml:space="preserve"> </v>
+        <v>True</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="str">
-        <v>MC Qu. 09 Which of the following is a...</v>
+        <v>Discussion Question 4-9 (LO 4-1)</v>
       </c>
       <c r="B36" t="str">
         <v>04-01</v>
@@ -1934,28 +1934,28 @@
         <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D36" t="str">
-        <v>Reflective Thinking</v>
+        <v>Analytical Thinking</v>
       </c>
       <c r="E36" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F36" t="str">
         <v/>
       </c>
       <c r="G36" t="str">
-        <v>Understand</v>
+        <v>Apply</v>
       </c>
       <c r="H36" t="str">
         <v>2 Medium</v>
       </c>
       <c r="I36" t="str">
-        <v>10 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J36" t="str">
         <v/>
       </c>
       <c r="K36" t="str">
-        <v>MC</v>
+        <v>Essay</v>
       </c>
       <c r="L36" t="str">
         <v/>
@@ -1964,12 +1964,12 @@
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
       <c r="N36" t="str">
-        <v xml:space="preserve"> </v>
+        <v>True</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="str">
-        <v>MC Qu. 10 Which of the following is not...</v>
+        <v>Discussion Question 4-10 (LO 4-1)</v>
       </c>
       <c r="B37" t="str">
         <v>04-01</v>
@@ -1978,28 +1978,28 @@
         <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D37" t="str">
-        <v>Reflective Thinking</v>
+        <v>Analytical Thinking</v>
       </c>
       <c r="E37" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F37" t="str">
         <v/>
       </c>
       <c r="G37" t="str">
-        <v>Understand</v>
+        <v>Apply</v>
       </c>
       <c r="H37" t="str">
         <v>2 Medium</v>
       </c>
       <c r="I37" t="str">
-        <v>10 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J37" t="str">
         <v/>
       </c>
       <c r="K37" t="str">
-        <v>MC</v>
+        <v>Essay</v>
       </c>
       <c r="L37" t="str">
         <v/>
@@ -2008,77 +2008,77 @@
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
       <c r="N37" t="str">
-        <v xml:space="preserve"> </v>
+        <v>True</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="str">
-        <v>MC Qu. 11 Sarah is the Colton family&amp;#8217;s 23-year-old...</v>
+        <v>Discussion Question 4-11 (LO 4-1)</v>
       </c>
       <c r="B38" t="str">
-        <v>04-02</v>
+        <v>04-01</v>
       </c>
       <c r="C38" t="str">
-        <v>Dependents of the Taxpayer</v>
+        <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D38" t="str">
-        <v>Reflective Thinking, Analytical Thinking</v>
+        <v>Analytical Thinking</v>
       </c>
       <c r="E38" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F38" t="str">
         <v/>
       </c>
       <c r="G38" t="str">
-        <v>Analyze</v>
+        <v>Apply</v>
       </c>
       <c r="H38" t="str">
-        <v>3 Hard</v>
+        <v>2 Medium</v>
       </c>
       <c r="I38" t="str">
-        <v>25 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J38" t="str">
         <v/>
       </c>
       <c r="K38" t="str">
-        <v>MC</v>
+        <v>Essay</v>
       </c>
       <c r="L38" t="str">
         <v/>
       </c>
       <c r="M38" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
       <c r="N38" t="str">
-        <v xml:space="preserve"> </v>
+        <v>True</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="str">
-        <v>MC Qu. 12 Filing status determines all except which...</v>
+        <v>Discussion Question 4-12 (LO 4-1)</v>
       </c>
       <c r="B39" t="str">
-        <v>04-03</v>
+        <v>04-01</v>
       </c>
       <c r="C39" t="str">
-        <v>Filing Status</v>
+        <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D39" t="str">
-        <v>Reflective Thinking</v>
+        <v>Analytical Thinking</v>
       </c>
       <c r="E39" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F39" t="str">
         <v/>
       </c>
       <c r="G39" t="str">
-        <v>Understand</v>
+        <v>Apply</v>
       </c>
       <c r="H39" t="str">
-        <v>3 Hard</v>
+        <v>2 Medium</v>
       </c>
       <c r="I39" t="str">
         <v>20 min.</v>
@@ -2087,83 +2087,83 @@
         <v/>
       </c>
       <c r="K39" t="str">
-        <v>MC</v>
+        <v>Essay</v>
       </c>
       <c r="L39" t="str">
         <v/>
       </c>
       <c r="M39" t="str">
-        <v>04-03  Determine a taxpayer's filing status.</v>
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
       <c r="N39" t="str">
-        <v xml:space="preserve"> </v>
+        <v>True</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="str">
-        <v>MC Qu. 13 In May of year 1, David...</v>
+        <v>Discussion Question 4-13 (LO 4-1)</v>
       </c>
       <c r="B40" t="str">
-        <v>04-03</v>
+        <v>04-01</v>
       </c>
       <c r="C40" t="str">
-        <v>Filing Status</v>
+        <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D40" t="str">
-        <v>Reflective Thinking</v>
+        <v>Analytical Thinking</v>
       </c>
       <c r="E40" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F40" t="str">
         <v/>
       </c>
       <c r="G40" t="str">
-        <v>Analyze</v>
+        <v>Apply</v>
       </c>
       <c r="H40" t="str">
         <v>2 Medium</v>
       </c>
       <c r="I40" t="str">
-        <v>15 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J40" t="str">
         <v/>
       </c>
       <c r="K40" t="str">
-        <v>MC</v>
+        <v>Essay</v>
       </c>
       <c r="L40" t="str">
         <v/>
       </c>
       <c r="M40" t="str">
-        <v>04-03  Determine a taxpayer's filing status.</v>
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
       <c r="N40" t="str">
-        <v xml:space="preserve"> </v>
+        <v>True</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="str">
-        <v>MC Qu. 14 In year 1, Danny&amp;#8217;s wife died....</v>
+        <v>Discussion Question 4-14 (LO 4-1)</v>
       </c>
       <c r="B41" t="str">
-        <v>04-03</v>
+        <v>04-01</v>
       </c>
       <c r="C41" t="str">
-        <v>Filing Status</v>
+        <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D41" t="str">
-        <v>Reflective Thinking</v>
+        <v>Analytical Thinking</v>
       </c>
       <c r="E41" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F41" t="str">
         <v/>
       </c>
       <c r="G41" t="str">
-        <v>Analyze</v>
+        <v>Apply</v>
       </c>
       <c r="H41" t="str">
         <v>2 Medium</v>
@@ -2175,65 +2175,65 @@
         <v/>
       </c>
       <c r="K41" t="str">
-        <v>MC</v>
+        <v>Essay</v>
       </c>
       <c r="L41" t="str">
         <v/>
       </c>
       <c r="M41" t="str">
-        <v>04-03  Determine a taxpayer's filing status.</v>
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
       <c r="N41" t="str">
-        <v xml:space="preserve"> </v>
+        <v>True</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="str">
-        <v>MC Qu. 15 Caroline and her husband Chris got...</v>
+        <v>Discussion Question 4-15 (LO 4-1)</v>
       </c>
       <c r="B42" t="str">
-        <v>04-03</v>
+        <v>04-01</v>
       </c>
       <c r="C42" t="str">
-        <v>Filing Status</v>
+        <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D42" t="str">
-        <v>Reflective Thinking</v>
+        <v>Analytical Thinking</v>
       </c>
       <c r="E42" t="str">
-        <v>Critical Thinking</v>
+        <v/>
       </c>
       <c r="F42" t="str">
         <v/>
       </c>
       <c r="G42" t="str">
-        <v>Analyze</v>
+        <v>Apply</v>
       </c>
       <c r="H42" t="str">
         <v>2 Medium</v>
       </c>
       <c r="I42" t="str">
-        <v>15 min.</v>
+        <v>10 min.</v>
       </c>
       <c r="J42" t="str">
         <v/>
       </c>
       <c r="K42" t="str">
-        <v>MC</v>
+        <v>Essay</v>
       </c>
       <c r="L42" t="str">
         <v/>
       </c>
       <c r="M42" t="str">
-        <v>04-03  Determine a taxpayer's filing status.</v>
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
       <c r="N42" t="str">
-        <v xml:space="preserve"> </v>
+        <v>True</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="str">
-        <v>Discussion Question 4-1 (LO 4-1)</v>
+        <v>Discussion Question 4-16 (LO 4-1)</v>
       </c>
       <c r="B43" t="str">
         <v>04-01</v>
@@ -2277,7 +2277,7 @@
     </row>
     <row r="44">
       <c r="A44" t="str">
-        <v>Discussion Question 4-2 (LO 4-1)</v>
+        <v>Discussion Question 4-17 (LO 4-1)</v>
       </c>
       <c r="B44" t="str">
         <v>04-01</v>
@@ -2321,13 +2321,13 @@
     </row>
     <row r="45">
       <c r="A45" t="str">
-        <v>Discussion Question 4-3 (LO 4-1)</v>
+        <v>Discussion Question 4-18 (LO 4-2)</v>
       </c>
       <c r="B45" t="str">
-        <v>04-01</v>
+        <v>04-02</v>
       </c>
       <c r="C45" t="str">
-        <v>The Individual Income Tax Formula</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D45" t="str">
         <v>Analytical Thinking</v>
@@ -2357,7 +2357,7 @@
         <v/>
       </c>
       <c r="M45" t="str">
-        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
       <c r="N45" t="str">
         <v>True</v>
@@ -2365,13 +2365,13 @@
     </row>
     <row r="46">
       <c r="A46" t="str">
-        <v>Discussion Question 4-4 (LO 4-1)</v>
+        <v>Discussion Question 4-19 (LO 4-2)</v>
       </c>
       <c r="B46" t="str">
-        <v>04-01</v>
+        <v>04-02</v>
       </c>
       <c r="C46" t="str">
-        <v>The Individual Income Tax Formula</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D46" t="str">
         <v>Analytical Thinking</v>
@@ -2383,13 +2383,13 @@
         <v/>
       </c>
       <c r="G46" t="str">
-        <v>Apply</v>
+        <v>Analyze</v>
       </c>
       <c r="H46" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I46" t="str">
-        <v>20 min.</v>
+        <v>25 min.</v>
       </c>
       <c r="J46" t="str">
         <v/>
@@ -2401,7 +2401,7 @@
         <v/>
       </c>
       <c r="M46" t="str">
-        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
       <c r="N46" t="str">
         <v>True</v>
@@ -2409,13 +2409,13 @@
     </row>
     <row r="47">
       <c r="A47" t="str">
-        <v>Discussion Question 4-5 (LO 4-1)</v>
+        <v>Discussion Question 4-20 (LO 4-2)</v>
       </c>
       <c r="B47" t="str">
-        <v>04-01</v>
+        <v>04-02</v>
       </c>
       <c r="C47" t="str">
-        <v>The Individual Income Tax Formula</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D47" t="str">
         <v>Analytical Thinking</v>
@@ -2427,13 +2427,13 @@
         <v/>
       </c>
       <c r="G47" t="str">
-        <v>Apply</v>
+        <v>Analyze</v>
       </c>
       <c r="H47" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I47" t="str">
-        <v>20 min.</v>
+        <v>25 min.</v>
       </c>
       <c r="J47" t="str">
         <v/>
@@ -2445,7 +2445,7 @@
         <v/>
       </c>
       <c r="M47" t="str">
-        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
       <c r="N47" t="str">
         <v>True</v>
@@ -2453,13 +2453,13 @@
     </row>
     <row r="48">
       <c r="A48" t="str">
-        <v>Discussion Question 4-6 (LO 4-1)</v>
+        <v>Discussion Question 4-21 (LO 4-2)</v>
       </c>
       <c r="B48" t="str">
-        <v>04-01</v>
+        <v>04-02</v>
       </c>
       <c r="C48" t="str">
-        <v>The Individual Income Tax Formula</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D48" t="str">
         <v>Analytical Thinking</v>
@@ -2471,13 +2471,13 @@
         <v/>
       </c>
       <c r="G48" t="str">
-        <v>Apply</v>
+        <v>Analyze</v>
       </c>
       <c r="H48" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I48" t="str">
-        <v>20 min.</v>
+        <v>25 min.</v>
       </c>
       <c r="J48" t="str">
         <v/>
@@ -2489,7 +2489,7 @@
         <v/>
       </c>
       <c r="M48" t="str">
-        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
       <c r="N48" t="str">
         <v>True</v>
@@ -2497,13 +2497,13 @@
     </row>
     <row r="49">
       <c r="A49" t="str">
-        <v>Discussion Question 4-7 (LO 4-1)</v>
+        <v>Discussion Question 4-22 (LO 4-2)</v>
       </c>
       <c r="B49" t="str">
-        <v>04-01</v>
+        <v>04-02</v>
       </c>
       <c r="C49" t="str">
-        <v>The Individual Income Tax Formula</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D49" t="str">
         <v>Analytical Thinking</v>
@@ -2515,13 +2515,13 @@
         <v/>
       </c>
       <c r="G49" t="str">
-        <v>Apply</v>
+        <v>Analyze</v>
       </c>
       <c r="H49" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I49" t="str">
-        <v>20 min.</v>
+        <v>25 min.</v>
       </c>
       <c r="J49" t="str">
         <v/>
@@ -2533,7 +2533,7 @@
         <v/>
       </c>
       <c r="M49" t="str">
-        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
       <c r="N49" t="str">
         <v>True</v>
@@ -2541,13 +2541,13 @@
     </row>
     <row r="50">
       <c r="A50" t="str">
-        <v>Discussion Question 4-8 (LO 4-1)</v>
+        <v>Discussion Question 4-23 (LO 4-2)</v>
       </c>
       <c r="B50" t="str">
-        <v>04-01</v>
+        <v>04-02</v>
       </c>
       <c r="C50" t="str">
-        <v>The Individual Income Tax Formula</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D50" t="str">
         <v>Analytical Thinking</v>
@@ -2559,10 +2559,10 @@
         <v/>
       </c>
       <c r="G50" t="str">
-        <v>Apply</v>
+        <v>Analyze</v>
       </c>
       <c r="H50" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I50" t="str">
         <v>20 min.</v>
@@ -2577,7 +2577,7 @@
         <v/>
       </c>
       <c r="M50" t="str">
-        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
       <c r="N50" t="str">
         <v>True</v>
@@ -2585,13 +2585,13 @@
     </row>
     <row r="51">
       <c r="A51" t="str">
-        <v>Discussion Question 4-9 (LO 4-1)</v>
+        <v>Discussion Question 4-24 (LO 4-3)</v>
       </c>
       <c r="B51" t="str">
-        <v>04-01</v>
+        <v>04-03</v>
       </c>
       <c r="C51" t="str">
-        <v>The Individual Income Tax Formula</v>
+        <v>Filing Status</v>
       </c>
       <c r="D51" t="str">
         <v>Analytical Thinking</v>
@@ -2603,10 +2603,10 @@
         <v/>
       </c>
       <c r="G51" t="str">
-        <v>Apply</v>
+        <v>Analyze</v>
       </c>
       <c r="H51" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I51" t="str">
         <v>20 min.</v>
@@ -2621,7 +2621,7 @@
         <v/>
       </c>
       <c r="M51" t="str">
-        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+        <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N51" t="str">
         <v>True</v>
@@ -2629,13 +2629,13 @@
     </row>
     <row r="52">
       <c r="A52" t="str">
-        <v>Discussion Question 4-10 (LO 4-1)</v>
+        <v>Discussion Question 4-25 (LO 4-3)</v>
       </c>
       <c r="B52" t="str">
-        <v>04-01</v>
+        <v>04-03</v>
       </c>
       <c r="C52" t="str">
-        <v>The Individual Income Tax Formula</v>
+        <v>Filing Status</v>
       </c>
       <c r="D52" t="str">
         <v>Analytical Thinking</v>
@@ -2647,10 +2647,10 @@
         <v/>
       </c>
       <c r="G52" t="str">
-        <v>Apply</v>
+        <v>Analyze</v>
       </c>
       <c r="H52" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I52" t="str">
         <v>20 min.</v>
@@ -2665,7 +2665,7 @@
         <v/>
       </c>
       <c r="M52" t="str">
-        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+        <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N52" t="str">
         <v>True</v>
@@ -2673,13 +2673,13 @@
     </row>
     <row r="53">
       <c r="A53" t="str">
-        <v>Discussion Question 4-11 (LO 4-1)</v>
+        <v>Discussion Question 4-26 (LO 4-3)</v>
       </c>
       <c r="B53" t="str">
-        <v>04-01</v>
+        <v>04-03</v>
       </c>
       <c r="C53" t="str">
-        <v>The Individual Income Tax Formula</v>
+        <v>Filing Status</v>
       </c>
       <c r="D53" t="str">
         <v>Analytical Thinking</v>
@@ -2691,10 +2691,10 @@
         <v/>
       </c>
       <c r="G53" t="str">
-        <v>Apply</v>
+        <v>Analyze</v>
       </c>
       <c r="H53" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I53" t="str">
         <v>20 min.</v>
@@ -2709,7 +2709,7 @@
         <v/>
       </c>
       <c r="M53" t="str">
-        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+        <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N53" t="str">
         <v>True</v>
@@ -2717,13 +2717,13 @@
     </row>
     <row r="54">
       <c r="A54" t="str">
-        <v>Discussion Question 4-12 (LO 4-1)</v>
+        <v>Discussion Question 4-27 (LO 4-3)</v>
       </c>
       <c r="B54" t="str">
-        <v>04-01</v>
+        <v>04-03</v>
       </c>
       <c r="C54" t="str">
-        <v>The Individual Income Tax Formula</v>
+        <v>Filing Status</v>
       </c>
       <c r="D54" t="str">
         <v>Analytical Thinking</v>
@@ -2735,10 +2735,10 @@
         <v/>
       </c>
       <c r="G54" t="str">
-        <v>Apply</v>
+        <v>Analyze</v>
       </c>
       <c r="H54" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I54" t="str">
         <v>20 min.</v>
@@ -2753,7 +2753,7 @@
         <v/>
       </c>
       <c r="M54" t="str">
-        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+        <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N54" t="str">
         <v>True</v>
@@ -2761,13 +2761,13 @@
     </row>
     <row r="55">
       <c r="A55" t="str">
-        <v>Discussion Question 4-13 (LO 4-1)</v>
+        <v>Discussion Question 4-28 (LO 4-3)</v>
       </c>
       <c r="B55" t="str">
-        <v>04-01</v>
+        <v>04-03</v>
       </c>
       <c r="C55" t="str">
-        <v>The Individual Income Tax Formula</v>
+        <v>Filing Status</v>
       </c>
       <c r="D55" t="str">
         <v>Analytical Thinking</v>
@@ -2779,10 +2779,10 @@
         <v/>
       </c>
       <c r="G55" t="str">
-        <v>Apply</v>
+        <v>Analyze</v>
       </c>
       <c r="H55" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I55" t="str">
         <v>20 min.</v>
@@ -2797,7 +2797,7 @@
         <v/>
       </c>
       <c r="M55" t="str">
-        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+        <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N55" t="str">
         <v>True</v>
@@ -2805,7 +2805,7 @@
     </row>
     <row r="56">
       <c r="A56" t="str">
-        <v>Discussion Question 4-14 (LO 4-1)</v>
+        <v>Problem 4-29 Part-a (Static)</v>
       </c>
       <c r="B56" t="str">
         <v>04-01</v>
@@ -2829,13 +2829,13 @@
         <v>2 Medium</v>
       </c>
       <c r="I56" t="str">
-        <v>10 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J56" t="str">
         <v/>
       </c>
       <c r="K56" t="str">
-        <v>Essay</v>
+        <v>Problem</v>
       </c>
       <c r="L56" t="str">
         <v/>
@@ -2844,12 +2844,12 @@
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
       <c r="N56" t="str">
-        <v>True</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="str">
-        <v>Discussion Question 4-15 (LO 4-1)</v>
+        <v>Problem 4-29 Part-b (Static)</v>
       </c>
       <c r="B57" t="str">
         <v>04-01</v>
@@ -2873,13 +2873,13 @@
         <v>2 Medium</v>
       </c>
       <c r="I57" t="str">
-        <v>10 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J57" t="str">
         <v/>
       </c>
       <c r="K57" t="str">
-        <v>Essay</v>
+        <v>Problem</v>
       </c>
       <c r="L57" t="str">
         <v/>
@@ -2888,12 +2888,12 @@
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
       <c r="N57" t="str">
-        <v>True</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="str">
-        <v>Discussion Question 4-16 (LO 4-1)</v>
+        <v>Problem 4-29 Part-c (Static)</v>
       </c>
       <c r="B58" t="str">
         <v>04-01</v>
@@ -2917,13 +2917,13 @@
         <v>2 Medium</v>
       </c>
       <c r="I58" t="str">
-        <v>10 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J58" t="str">
         <v/>
       </c>
       <c r="K58" t="str">
-        <v>Essay</v>
+        <v>Problem</v>
       </c>
       <c r="L58" t="str">
         <v/>
@@ -2932,12 +2932,12 @@
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
       <c r="N58" t="str">
-        <v>True</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="str">
-        <v>Discussion Question 4-17 (LO 4-1)</v>
+        <v>Problem 4-29 Part-a (Algo)</v>
       </c>
       <c r="B59" t="str">
         <v>04-01</v>
@@ -2961,13 +2961,13 @@
         <v>2 Medium</v>
       </c>
       <c r="I59" t="str">
-        <v>10 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J59" t="str">
         <v/>
       </c>
       <c r="K59" t="str">
-        <v>Essay</v>
+        <v>Problem</v>
       </c>
       <c r="L59" t="str">
         <v/>
@@ -2976,18 +2976,18 @@
         <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
       <c r="N59" t="str">
-        <v>True</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="str">
-        <v>Discussion Question 4-18 (LO 4-2)</v>
+        <v>Problem 4-29 Part-b (Algo)</v>
       </c>
       <c r="B60" t="str">
-        <v>04-02</v>
+        <v>04-01</v>
       </c>
       <c r="C60" t="str">
-        <v>Dependents of the Taxpayer</v>
+        <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D60" t="str">
         <v>Analytical Thinking</v>
@@ -3005,33 +3005,33 @@
         <v>2 Medium</v>
       </c>
       <c r="I60" t="str">
-        <v>10 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J60" t="str">
         <v/>
       </c>
       <c r="K60" t="str">
-        <v>Essay</v>
+        <v>Problem</v>
       </c>
       <c r="L60" t="str">
         <v/>
       </c>
       <c r="M60" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
       <c r="N60" t="str">
-        <v>True</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="str">
-        <v>Discussion Question 4-19 (LO 4-2)</v>
+        <v>Problem 4-29 Part-c (Algo)</v>
       </c>
       <c r="B61" t="str">
-        <v>04-02</v>
+        <v>04-01</v>
       </c>
       <c r="C61" t="str">
-        <v>Dependents of the Taxpayer</v>
+        <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D61" t="str">
         <v>Analytical Thinking</v>
@@ -3043,39 +3043,39 @@
         <v/>
       </c>
       <c r="G61" t="str">
-        <v>Analyze</v>
+        <v>Apply</v>
       </c>
       <c r="H61" t="str">
-        <v>3 Hard</v>
+        <v>2 Medium</v>
       </c>
       <c r="I61" t="str">
-        <v>25 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J61" t="str">
         <v/>
       </c>
       <c r="K61" t="str">
-        <v>Essay</v>
+        <v>Problem</v>
       </c>
       <c r="L61" t="str">
         <v/>
       </c>
       <c r="M61" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
       <c r="N61" t="str">
-        <v>True</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="str">
-        <v>Discussion Question 4-20 (LO 4-2)</v>
+        <v>Problem 4-30 (LO 4-1) (Static)</v>
       </c>
       <c r="B62" t="str">
-        <v>04-02</v>
+        <v>04-01</v>
       </c>
       <c r="C62" t="str">
-        <v>Dependents of the Taxpayer</v>
+        <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D62" t="str">
         <v>Analytical Thinking</v>
@@ -3087,39 +3087,39 @@
         <v/>
       </c>
       <c r="G62" t="str">
-        <v>Analyze</v>
+        <v>Apply</v>
       </c>
       <c r="H62" t="str">
-        <v>3 Hard</v>
+        <v>1 Easy</v>
       </c>
       <c r="I62" t="str">
-        <v>25 min.</v>
+        <v>5 min.</v>
       </c>
       <c r="J62" t="str">
         <v/>
       </c>
       <c r="K62" t="str">
-        <v>Essay</v>
+        <v>Problem</v>
       </c>
       <c r="L62" t="str">
         <v/>
       </c>
       <c r="M62" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
       <c r="N62" t="str">
-        <v>True</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="str">
-        <v>Discussion Question 4-21 (LO 4-2)</v>
+        <v>Problem 4-30 (LO 4-1) (Algo)</v>
       </c>
       <c r="B63" t="str">
-        <v>04-02</v>
+        <v>04-01</v>
       </c>
       <c r="C63" t="str">
-        <v>Dependents of the Taxpayer</v>
+        <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D63" t="str">
         <v>Analytical Thinking</v>
@@ -3131,39 +3131,39 @@
         <v/>
       </c>
       <c r="G63" t="str">
-        <v>Analyze</v>
+        <v>Apply</v>
       </c>
       <c r="H63" t="str">
-        <v>3 Hard</v>
+        <v>1 Easy</v>
       </c>
       <c r="I63" t="str">
-        <v>25 min.</v>
+        <v>5 min.</v>
       </c>
       <c r="J63" t="str">
         <v/>
       </c>
       <c r="K63" t="str">
-        <v>Essay</v>
+        <v>Problem</v>
       </c>
       <c r="L63" t="str">
         <v/>
       </c>
       <c r="M63" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
       <c r="N63" t="str">
-        <v>True</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="str">
-        <v>Discussion Question 4-22 (LO 4-2)</v>
+        <v>Problem 4-31 Part-a (Static)</v>
       </c>
       <c r="B64" t="str">
-        <v>04-02</v>
+        <v>04-01</v>
       </c>
       <c r="C64" t="str">
-        <v>Dependents of the Taxpayer</v>
+        <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D64" t="str">
         <v>Analytical Thinking</v>
@@ -3175,39 +3175,39 @@
         <v/>
       </c>
       <c r="G64" t="str">
-        <v>Analyze</v>
+        <v>Apply</v>
       </c>
       <c r="H64" t="str">
-        <v>3 Hard</v>
+        <v>2 Medium</v>
       </c>
       <c r="I64" t="str">
-        <v>25 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J64" t="str">
         <v/>
       </c>
       <c r="K64" t="str">
-        <v>Essay</v>
+        <v>Problem</v>
       </c>
       <c r="L64" t="str">
         <v/>
       </c>
       <c r="M64" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
       <c r="N64" t="str">
-        <v>True</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="str">
-        <v>Discussion Question 4-23 (LO 4-2)</v>
+        <v>Problem 4-31 Parts b-1 to b-2 (Static)</v>
       </c>
       <c r="B65" t="str">
-        <v>04-02</v>
+        <v>04-01</v>
       </c>
       <c r="C65" t="str">
-        <v>Dependents of the Taxpayer</v>
+        <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D65" t="str">
         <v>Analytical Thinking</v>
@@ -3219,10 +3219,10 @@
         <v/>
       </c>
       <c r="G65" t="str">
-        <v>Analyze</v>
+        <v>Apply</v>
       </c>
       <c r="H65" t="str">
-        <v>3 Hard</v>
+        <v>2 Medium</v>
       </c>
       <c r="I65" t="str">
         <v>20 min.</v>
@@ -3231,27 +3231,27 @@
         <v/>
       </c>
       <c r="K65" t="str">
-        <v>Essay</v>
+        <v>Problem</v>
       </c>
       <c r="L65" t="str">
         <v/>
       </c>
       <c r="M65" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
       <c r="N65" t="str">
-        <v>True</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="str">
-        <v>Discussion Question 4-24 (LO 4-3)</v>
+        <v>Problem 4-31 Part-a (Algo)</v>
       </c>
       <c r="B66" t="str">
-        <v>04-03</v>
+        <v>04-01</v>
       </c>
       <c r="C66" t="str">
-        <v>Filing Status</v>
+        <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D66" t="str">
         <v>Analytical Thinking</v>
@@ -3263,10 +3263,10 @@
         <v/>
       </c>
       <c r="G66" t="str">
-        <v>Analyze</v>
+        <v>Apply</v>
       </c>
       <c r="H66" t="str">
-        <v>3 Hard</v>
+        <v>2 Medium</v>
       </c>
       <c r="I66" t="str">
         <v>20 min.</v>
@@ -3275,27 +3275,27 @@
         <v/>
       </c>
       <c r="K66" t="str">
-        <v>Essay</v>
+        <v>Problem</v>
       </c>
       <c r="L66" t="str">
         <v/>
       </c>
       <c r="M66" t="str">
-        <v>04-03  Determine a taxpayer's filing status.</v>
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
       <c r="N66" t="str">
-        <v>True</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="str">
-        <v>Discussion Question 4-25 (LO 4-3)</v>
+        <v>Problem 4-31 Parts b-1 to b-2 (Algo)</v>
       </c>
       <c r="B67" t="str">
-        <v>04-03</v>
+        <v>04-01</v>
       </c>
       <c r="C67" t="str">
-        <v>Filing Status</v>
+        <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D67" t="str">
         <v>Analytical Thinking</v>
@@ -3307,10 +3307,10 @@
         <v/>
       </c>
       <c r="G67" t="str">
-        <v>Analyze</v>
+        <v>Apply</v>
       </c>
       <c r="H67" t="str">
-        <v>3 Hard</v>
+        <v>2 Medium</v>
       </c>
       <c r="I67" t="str">
         <v>20 min.</v>
@@ -3319,27 +3319,27 @@
         <v/>
       </c>
       <c r="K67" t="str">
-        <v>Essay</v>
+        <v>Problem</v>
       </c>
       <c r="L67" t="str">
         <v/>
       </c>
       <c r="M67" t="str">
-        <v>04-03  Determine a taxpayer's filing status.</v>
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
       <c r="N67" t="str">
-        <v>True</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="str">
-        <v>Discussion Question 4-26 (LO 4-3)</v>
+        <v>Problem 4-32 (LO 4-1) (Static)</v>
       </c>
       <c r="B68" t="str">
-        <v>04-03</v>
+        <v>04-01</v>
       </c>
       <c r="C68" t="str">
-        <v>Filing Status</v>
+        <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D68" t="str">
         <v>Analytical Thinking</v>
@@ -3351,39 +3351,39 @@
         <v/>
       </c>
       <c r="G68" t="str">
-        <v>Analyze</v>
+        <v>Apply</v>
       </c>
       <c r="H68" t="str">
         <v>3 Hard</v>
       </c>
       <c r="I68" t="str">
-        <v>20 min.</v>
+        <v>25 min.</v>
       </c>
       <c r="J68" t="str">
         <v/>
       </c>
       <c r="K68" t="str">
-        <v>Essay</v>
+        <v>Problem</v>
       </c>
       <c r="L68" t="str">
         <v/>
       </c>
       <c r="M68" t="str">
-        <v>04-03  Determine a taxpayer's filing status.</v>
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
       <c r="N68" t="str">
-        <v>True</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="str">
-        <v>Discussion Question 4-27 (LO 4-3)</v>
+        <v>Problem 4-32 (LO 4-1) (Algo)</v>
       </c>
       <c r="B69" t="str">
-        <v>04-03</v>
+        <v>04-01</v>
       </c>
       <c r="C69" t="str">
-        <v>Filing Status</v>
+        <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D69" t="str">
         <v>Analytical Thinking</v>
@@ -3395,42 +3395,42 @@
         <v/>
       </c>
       <c r="G69" t="str">
-        <v>Analyze</v>
+        <v>Apply</v>
       </c>
       <c r="H69" t="str">
         <v>3 Hard</v>
       </c>
       <c r="I69" t="str">
-        <v>20 min.</v>
+        <v>25 min.</v>
       </c>
       <c r="J69" t="str">
         <v/>
       </c>
       <c r="K69" t="str">
-        <v>Essay</v>
+        <v>Problem</v>
       </c>
       <c r="L69" t="str">
         <v/>
       </c>
       <c r="M69" t="str">
-        <v>04-03  Determine a taxpayer's filing status.</v>
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
       <c r="N69" t="str">
-        <v>True</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="str">
-        <v>Discussion Question 4-28 (LO 4-3)</v>
+        <v>Problem 4-33 Part-a (Static)</v>
       </c>
       <c r="B70" t="str">
-        <v>04-03</v>
+        <v>04-01</v>
       </c>
       <c r="C70" t="str">
-        <v>Filing Status</v>
+        <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D70" t="str">
-        <v>Analytical Thinking</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E70" t="str">
         <v/>
@@ -3442,7 +3442,7 @@
         <v>Analyze</v>
       </c>
       <c r="H70" t="str">
-        <v>3 Hard</v>
+        <v>2 Medium</v>
       </c>
       <c r="I70" t="str">
         <v>20 min.</v>
@@ -3451,21 +3451,21 @@
         <v/>
       </c>
       <c r="K70" t="str">
-        <v>Essay</v>
+        <v>Problem</v>
       </c>
       <c r="L70" t="str">
         <v/>
       </c>
       <c r="M70" t="str">
-        <v>04-03  Determine a taxpayer's filing status.</v>
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
       </c>
       <c r="N70" t="str">
-        <v>True</v>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="str">
-        <v>Problem 4-29 Part-a (Static)</v>
+        <v>Problem 4-33 Part-b (Static)</v>
       </c>
       <c r="B71" t="str">
         <v>04-01</v>
@@ -3474,7 +3474,7 @@
         <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D71" t="str">
-        <v>Analytical Thinking</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E71" t="str">
         <v/>
@@ -3483,7 +3483,7 @@
         <v/>
       </c>
       <c r="G71" t="str">
-        <v>Apply</v>
+        <v>Analyze</v>
       </c>
       <c r="H71" t="str">
         <v>2 Medium</v>
@@ -3509,7 +3509,7 @@
     </row>
     <row r="72">
       <c r="A72" t="str">
-        <v>Problem 4-29 Part-b (Static)</v>
+        <v>Problem 4-33 Part-a (Algo)</v>
       </c>
       <c r="B72" t="str">
         <v>04-01</v>
@@ -3518,7 +3518,7 @@
         <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D72" t="str">
-        <v>Analytical Thinking</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E72" t="str">
         <v/>
@@ -3527,7 +3527,7 @@
         <v/>
       </c>
       <c r="G72" t="str">
-        <v>Apply</v>
+        <v>Analyze</v>
       </c>
       <c r="H72" t="str">
         <v>2 Medium</v>
@@ -3553,7 +3553,7 @@
     </row>
     <row r="73">
       <c r="A73" t="str">
-        <v>Problem 4-29 Part-c (Static)</v>
+        <v>Problem 4-33 Part-b (Algo)</v>
       </c>
       <c r="B73" t="str">
         <v>04-01</v>
@@ -3562,7 +3562,7 @@
         <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D73" t="str">
-        <v>Analytical Thinking</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E73" t="str">
         <v/>
@@ -3571,7 +3571,7 @@
         <v/>
       </c>
       <c r="G73" t="str">
-        <v>Apply</v>
+        <v>Analyze</v>
       </c>
       <c r="H73" t="str">
         <v>2 Medium</v>
@@ -3597,16 +3597,16 @@
     </row>
     <row r="74">
       <c r="A74" t="str">
-        <v>Problem 4-29 Part-a (Algo)</v>
+        <v>Problem 4-34 (LO 4-1, LO 4-2) (Static)</v>
       </c>
       <c r="B74" t="str">
-        <v>04-01</v>
+        <v>04-01, 04-02</v>
       </c>
       <c r="C74" t="str">
         <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D74" t="str">
-        <v>Analytical Thinking</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E74" t="str">
         <v/>
@@ -3615,7 +3615,7 @@
         <v/>
       </c>
       <c r="G74" t="str">
-        <v>Apply</v>
+        <v>Analyze</v>
       </c>
       <c r="H74" t="str">
         <v>2 Medium</v>
@@ -3633,7 +3633,7 @@
         <v/>
       </c>
       <c r="M74" t="str">
-        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
       <c r="N74" t="str">
         <v xml:space="preserve"> </v>
@@ -3641,16 +3641,16 @@
     </row>
     <row r="75">
       <c r="A75" t="str">
-        <v>Problem 4-29 Part-b (Algo)</v>
+        <v>Problem 4-34 (LO 4-1, LO 4-2) (Algo)</v>
       </c>
       <c r="B75" t="str">
-        <v>04-01</v>
+        <v>04-01, 04-02</v>
       </c>
       <c r="C75" t="str">
         <v>The Individual Income Tax Formula</v>
       </c>
       <c r="D75" t="str">
-        <v>Analytical Thinking</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E75" t="str">
         <v/>
@@ -3659,7 +3659,7 @@
         <v/>
       </c>
       <c r="G75" t="str">
-        <v>Apply</v>
+        <v>Analyze</v>
       </c>
       <c r="H75" t="str">
         <v>2 Medium</v>
@@ -3677,7 +3677,7 @@
         <v/>
       </c>
       <c r="M75" t="str">
-        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
       <c r="N75" t="str">
         <v xml:space="preserve"> </v>
@@ -3685,16 +3685,16 @@
     </row>
     <row r="76">
       <c r="A76" t="str">
-        <v>Problem 4-29 Part-c (Algo)</v>
+        <v>Problem 4-35 Part-a (Static)</v>
       </c>
       <c r="B76" t="str">
-        <v>04-01</v>
+        <v>04-02</v>
       </c>
       <c r="C76" t="str">
-        <v>The Individual Income Tax Formula</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D76" t="str">
-        <v>Analytical Thinking</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E76" t="str">
         <v/>
@@ -3721,7 +3721,7 @@
         <v/>
       </c>
       <c r="M76" t="str">
-        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
       <c r="N76" t="str">
         <v xml:space="preserve"> </v>
@@ -3729,16 +3729,16 @@
     </row>
     <row r="77">
       <c r="A77" t="str">
-        <v>Problem 4-30 (LO 4-1) (Static)</v>
+        <v>Problem 4-35 Part-b (Static)</v>
       </c>
       <c r="B77" t="str">
-        <v>04-01</v>
+        <v>04-02</v>
       </c>
       <c r="C77" t="str">
-        <v>The Individual Income Tax Formula</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D77" t="str">
-        <v>Analytical Thinking</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E77" t="str">
         <v/>
@@ -3750,10 +3750,10 @@
         <v>Apply</v>
       </c>
       <c r="H77" t="str">
-        <v>1 Easy</v>
+        <v>2 Medium</v>
       </c>
       <c r="I77" t="str">
-        <v>5 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J77" t="str">
         <v/>
@@ -3765,7 +3765,7 @@
         <v/>
       </c>
       <c r="M77" t="str">
-        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
       <c r="N77" t="str">
         <v xml:space="preserve"> </v>
@@ -3773,16 +3773,16 @@
     </row>
     <row r="78">
       <c r="A78" t="str">
-        <v>Problem 4-30 (LO 4-1) (Algo)</v>
+        <v>Problem 4-35 Part-c (Static)</v>
       </c>
       <c r="B78" t="str">
-        <v>04-01</v>
+        <v>04-02</v>
       </c>
       <c r="C78" t="str">
-        <v>The Individual Income Tax Formula</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D78" t="str">
-        <v>Analytical Thinking</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E78" t="str">
         <v/>
@@ -3794,10 +3794,10 @@
         <v>Apply</v>
       </c>
       <c r="H78" t="str">
-        <v>1 Easy</v>
+        <v>2 Medium</v>
       </c>
       <c r="I78" t="str">
-        <v>5 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J78" t="str">
         <v/>
@@ -3809,7 +3809,7 @@
         <v/>
       </c>
       <c r="M78" t="str">
-        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
       <c r="N78" t="str">
         <v xml:space="preserve"> </v>
@@ -3817,16 +3817,16 @@
     </row>
     <row r="79">
       <c r="A79" t="str">
-        <v>Problem 4-31 Part-a (Static)</v>
+        <v>Problem 4-36 Part-a (Static)</v>
       </c>
       <c r="B79" t="str">
-        <v>04-01</v>
+        <v>04-02</v>
       </c>
       <c r="C79" t="str">
-        <v>The Individual Income Tax Formula</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D79" t="str">
-        <v>Analytical Thinking</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E79" t="str">
         <v/>
@@ -3841,7 +3841,7 @@
         <v>2 Medium</v>
       </c>
       <c r="I79" t="str">
-        <v>20 min.</v>
+        <v>25 min.</v>
       </c>
       <c r="J79" t="str">
         <v/>
@@ -3853,7 +3853,7 @@
         <v/>
       </c>
       <c r="M79" t="str">
-        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
       <c r="N79" t="str">
         <v xml:space="preserve"> </v>
@@ -3861,16 +3861,16 @@
     </row>
     <row r="80">
       <c r="A80" t="str">
-        <v>Problem 4-31 Parts b-1 to b-2 (Static)</v>
+        <v>Problem 4-36 Part-b (Static)</v>
       </c>
       <c r="B80" t="str">
-        <v>04-01</v>
+        <v>04-02</v>
       </c>
       <c r="C80" t="str">
-        <v>The Individual Income Tax Formula</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D80" t="str">
-        <v>Analytical Thinking</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E80" t="str">
         <v/>
@@ -3885,7 +3885,7 @@
         <v>2 Medium</v>
       </c>
       <c r="I80" t="str">
-        <v>20 min.</v>
+        <v>25 min.</v>
       </c>
       <c r="J80" t="str">
         <v/>
@@ -3897,7 +3897,7 @@
         <v/>
       </c>
       <c r="M80" t="str">
-        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
       <c r="N80" t="str">
         <v xml:space="preserve"> </v>
@@ -3905,16 +3905,16 @@
     </row>
     <row r="81">
       <c r="A81" t="str">
-        <v>Problem 4-31 Part-a (Algo)</v>
+        <v>Problem 4-36 Part-c (Static)</v>
       </c>
       <c r="B81" t="str">
-        <v>04-01</v>
+        <v>04-02</v>
       </c>
       <c r="C81" t="str">
-        <v>The Individual Income Tax Formula</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D81" t="str">
-        <v>Analytical Thinking</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E81" t="str">
         <v/>
@@ -3929,7 +3929,7 @@
         <v>2 Medium</v>
       </c>
       <c r="I81" t="str">
-        <v>20 min.</v>
+        <v>25 min.</v>
       </c>
       <c r="J81" t="str">
         <v/>
@@ -3941,7 +3941,7 @@
         <v/>
       </c>
       <c r="M81" t="str">
-        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
       <c r="N81" t="str">
         <v xml:space="preserve"> </v>
@@ -3949,16 +3949,16 @@
     </row>
     <row r="82">
       <c r="A82" t="str">
-        <v>Problem 4-31 Parts b-1 to b-2 (Algo)</v>
+        <v>Problem 4-36 Part-d (Static)</v>
       </c>
       <c r="B82" t="str">
-        <v>04-01</v>
+        <v>04-02</v>
       </c>
       <c r="C82" t="str">
-        <v>The Individual Income Tax Formula</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D82" t="str">
-        <v>Analytical Thinking</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E82" t="str">
         <v/>
@@ -3973,7 +3973,7 @@
         <v>2 Medium</v>
       </c>
       <c r="I82" t="str">
-        <v>20 min.</v>
+        <v>25 min.</v>
       </c>
       <c r="J82" t="str">
         <v/>
@@ -3985,7 +3985,7 @@
         <v/>
       </c>
       <c r="M82" t="str">
-        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
       <c r="N82" t="str">
         <v xml:space="preserve"> </v>
@@ -3993,16 +3993,16 @@
     </row>
     <row r="83">
       <c r="A83" t="str">
-        <v>Problem 4-32 (LO 4-1) (Static)</v>
+        <v>Problem 4-36 Part-a (Algo)</v>
       </c>
       <c r="B83" t="str">
-        <v>04-01</v>
+        <v>04-02</v>
       </c>
       <c r="C83" t="str">
-        <v>The Individual Income Tax Formula</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D83" t="str">
-        <v>Analytical Thinking</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E83" t="str">
         <v/>
@@ -4014,7 +4014,7 @@
         <v>Apply</v>
       </c>
       <c r="H83" t="str">
-        <v>3 Hard</v>
+        <v>2 Medium</v>
       </c>
       <c r="I83" t="str">
         <v>25 min.</v>
@@ -4029,7 +4029,7 @@
         <v/>
       </c>
       <c r="M83" t="str">
-        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
       <c r="N83" t="str">
         <v xml:space="preserve"> </v>
@@ -4037,16 +4037,16 @@
     </row>
     <row r="84">
       <c r="A84" t="str">
-        <v>Problem 4-32 (LO 4-1) (Algo)</v>
+        <v>Problem 4-36 Part-b (Algo)</v>
       </c>
       <c r="B84" t="str">
-        <v>04-01</v>
+        <v>04-02</v>
       </c>
       <c r="C84" t="str">
-        <v>The Individual Income Tax Formula</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D84" t="str">
-        <v>Analytical Thinking</v>
+        <v>Reflective Thinking</v>
       </c>
       <c r="E84" t="str">
         <v/>
@@ -4058,7 +4058,7 @@
         <v>Apply</v>
       </c>
       <c r="H84" t="str">
-        <v>3 Hard</v>
+        <v>2 Medium</v>
       </c>
       <c r="I84" t="str">
         <v>25 min.</v>
@@ -4073,7 +4073,7 @@
         <v/>
       </c>
       <c r="M84" t="str">
-        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
       <c r="N84" t="str">
         <v xml:space="preserve"> </v>
@@ -4081,13 +4081,13 @@
     </row>
     <row r="85">
       <c r="A85" t="str">
-        <v>Problem 4-33 Part-a (Static)</v>
+        <v>Problem 4-36 Part-c (Algo)</v>
       </c>
       <c r="B85" t="str">
-        <v>04-01</v>
+        <v>04-02</v>
       </c>
       <c r="C85" t="str">
-        <v>The Individual Income Tax Formula</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D85" t="str">
         <v>Reflective Thinking</v>
@@ -4099,13 +4099,13 @@
         <v/>
       </c>
       <c r="G85" t="str">
-        <v>Analyze</v>
+        <v>Apply</v>
       </c>
       <c r="H85" t="str">
         <v>2 Medium</v>
       </c>
       <c r="I85" t="str">
-        <v>20 min.</v>
+        <v>25 min.</v>
       </c>
       <c r="J85" t="str">
         <v/>
@@ -4117,7 +4117,7 @@
         <v/>
       </c>
       <c r="M85" t="str">
-        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
       <c r="N85" t="str">
         <v xml:space="preserve"> </v>
@@ -4125,13 +4125,13 @@
     </row>
     <row r="86">
       <c r="A86" t="str">
-        <v>Problem 4-33 Part-b (Static)</v>
+        <v>Problem 4-36 Part-d (Algo)</v>
       </c>
       <c r="B86" t="str">
-        <v>04-01</v>
+        <v>04-02</v>
       </c>
       <c r="C86" t="str">
-        <v>The Individual Income Tax Formula</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D86" t="str">
         <v>Reflective Thinking</v>
@@ -4143,13 +4143,13 @@
         <v/>
       </c>
       <c r="G86" t="str">
-        <v>Analyze</v>
+        <v>Apply</v>
       </c>
       <c r="H86" t="str">
         <v>2 Medium</v>
       </c>
       <c r="I86" t="str">
-        <v>20 min.</v>
+        <v>25 min.</v>
       </c>
       <c r="J86" t="str">
         <v/>
@@ -4161,7 +4161,7 @@
         <v/>
       </c>
       <c r="M86" t="str">
-        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
       <c r="N86" t="str">
         <v xml:space="preserve"> </v>
@@ -4169,13 +4169,13 @@
     </row>
     <row r="87">
       <c r="A87" t="str">
-        <v>Problem 4-33 Part-a (Algo)</v>
+        <v>Problem 4-37 Part-a (Static)</v>
       </c>
       <c r="B87" t="str">
-        <v>04-01</v>
+        <v>04-02</v>
       </c>
       <c r="C87" t="str">
-        <v>The Individual Income Tax Formula</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D87" t="str">
         <v>Reflective Thinking</v>
@@ -4187,13 +4187,13 @@
         <v/>
       </c>
       <c r="G87" t="str">
-        <v>Analyze</v>
+        <v>Apply</v>
       </c>
       <c r="H87" t="str">
         <v>2 Medium</v>
       </c>
       <c r="I87" t="str">
-        <v>20 min.</v>
+        <v>15 min.</v>
       </c>
       <c r="J87" t="str">
         <v/>
@@ -4205,7 +4205,7 @@
         <v/>
       </c>
       <c r="M87" t="str">
-        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
       <c r="N87" t="str">
         <v xml:space="preserve"> </v>
@@ -4213,13 +4213,13 @@
     </row>
     <row r="88">
       <c r="A88" t="str">
-        <v>Problem 4-33 Part-b (Algo)</v>
+        <v>Problem 4-37 Part-b (Static)</v>
       </c>
       <c r="B88" t="str">
-        <v>04-01</v>
+        <v>04-02</v>
       </c>
       <c r="C88" t="str">
-        <v>The Individual Income Tax Formula</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D88" t="str">
         <v>Reflective Thinking</v>
@@ -4231,13 +4231,13 @@
         <v/>
       </c>
       <c r="G88" t="str">
-        <v>Analyze</v>
+        <v>Apply</v>
       </c>
       <c r="H88" t="str">
         <v>2 Medium</v>
       </c>
       <c r="I88" t="str">
-        <v>20 min.</v>
+        <v>15 min.</v>
       </c>
       <c r="J88" t="str">
         <v/>
@@ -4249,7 +4249,7 @@
         <v/>
       </c>
       <c r="M88" t="str">
-        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
       <c r="N88" t="str">
         <v xml:space="preserve"> </v>
@@ -4257,13 +4257,13 @@
     </row>
     <row r="89">
       <c r="A89" t="str">
-        <v>Problem 4-34 (LO 4-1, LO 4-2) (Static)</v>
+        <v>Problem 4-37 Part-c (Static)</v>
       </c>
       <c r="B89" t="str">
-        <v>04-01, 04-02</v>
+        <v>04-02</v>
       </c>
       <c r="C89" t="str">
-        <v>The Individual Income Tax Formula</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D89" t="str">
         <v>Reflective Thinking</v>
@@ -4275,13 +4275,13 @@
         <v/>
       </c>
       <c r="G89" t="str">
-        <v>Analyze</v>
+        <v>Apply</v>
       </c>
       <c r="H89" t="str">
         <v>2 Medium</v>
       </c>
       <c r="I89" t="str">
-        <v>20 min.</v>
+        <v>15 min.</v>
       </c>
       <c r="J89" t="str">
         <v/>
@@ -4293,7 +4293,7 @@
         <v/>
       </c>
       <c r="M89" t="str">
-        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
       <c r="N89" t="str">
         <v xml:space="preserve"> </v>
@@ -4301,13 +4301,13 @@
     </row>
     <row r="90">
       <c r="A90" t="str">
-        <v>Problem 4-34 (LO 4-1, LO 4-2) (Algo)</v>
+        <v>Problem 4-37 Part-d (Static)</v>
       </c>
       <c r="B90" t="str">
-        <v>04-01, 04-02</v>
+        <v>04-02</v>
       </c>
       <c r="C90" t="str">
-        <v>The Individual Income Tax Formula</v>
+        <v>Dependents of the Taxpayer</v>
       </c>
       <c r="D90" t="str">
         <v>Reflective Thinking</v>
@@ -4319,13 +4319,13 @@
         <v/>
       </c>
       <c r="G90" t="str">
-        <v>Analyze</v>
+        <v>Apply</v>
       </c>
       <c r="H90" t="str">
         <v>2 Medium</v>
       </c>
       <c r="I90" t="str">
-        <v>20 min.</v>
+        <v>15 min.</v>
       </c>
       <c r="J90" t="str">
         <v/>
@@ -4337,7 +4337,7 @@
         <v/>
       </c>
       <c r="M90" t="str">
-        <v>04-01  Describe the formula for calculating an individual taxpayer's taxes due or refund.;04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
       </c>
       <c r="N90" t="str">
         <v xml:space="preserve"> </v>
@@ -4345,7 +4345,7 @@
     </row>
     <row r="91">
       <c r="A91" t="str">
-        <v>Problem 4-35 Part-a (Static)</v>
+        <v>Problem 4-38 Part-a (Static)</v>
       </c>
       <c r="B91" t="str">
         <v>04-02</v>
@@ -4389,7 +4389,7 @@
     </row>
     <row r="92">
       <c r="A92" t="str">
-        <v>Problem 4-35 Part-b (Static)</v>
+        <v>Problem 4-38 Part-b (Static)</v>
       </c>
       <c r="B92" t="str">
         <v>04-02</v>
@@ -4433,7 +4433,7 @@
     </row>
     <row r="93">
       <c r="A93" t="str">
-        <v>Problem 4-35 Part-c (Static)</v>
+        <v>Problem 4-38 Part-c (Static)</v>
       </c>
       <c r="B93" t="str">
         <v>04-02</v>
@@ -4477,7 +4477,7 @@
     </row>
     <row r="94">
       <c r="A94" t="str">
-        <v>Problem 4-36 Part-a (Static)</v>
+        <v>Problem 4-38 Part-d (Static)</v>
       </c>
       <c r="B94" t="str">
         <v>04-02</v>
@@ -4501,7 +4501,7 @@
         <v>2 Medium</v>
       </c>
       <c r="I94" t="str">
-        <v>25 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J94" t="str">
         <v/>
@@ -4521,7 +4521,7 @@
     </row>
     <row r="95">
       <c r="A95" t="str">
-        <v>Problem 4-36 Part-b (Static)</v>
+        <v>Problem 4-38 Part-a (Algo)</v>
       </c>
       <c r="B95" t="str">
         <v>04-02</v>
@@ -4545,7 +4545,7 @@
         <v>2 Medium</v>
       </c>
       <c r="I95" t="str">
-        <v>25 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J95" t="str">
         <v/>
@@ -4565,7 +4565,7 @@
     </row>
     <row r="96">
       <c r="A96" t="str">
-        <v>Problem 4-36 Part-c (Static)</v>
+        <v>Problem 4-38 Part-b (Algo)</v>
       </c>
       <c r="B96" t="str">
         <v>04-02</v>
@@ -4589,7 +4589,7 @@
         <v>2 Medium</v>
       </c>
       <c r="I96" t="str">
-        <v>25 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J96" t="str">
         <v/>
@@ -4609,7 +4609,7 @@
     </row>
     <row r="97">
       <c r="A97" t="str">
-        <v>Problem 4-36 Part-d (Static)</v>
+        <v>Problem 4-38 Part-c (Algo)</v>
       </c>
       <c r="B97" t="str">
         <v>04-02</v>
@@ -4633,7 +4633,7 @@
         <v>2 Medium</v>
       </c>
       <c r="I97" t="str">
-        <v>25 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J97" t="str">
         <v/>
@@ -4653,7 +4653,7 @@
     </row>
     <row r="98">
       <c r="A98" t="str">
-        <v>Problem 4-36 Part-a (Algo)</v>
+        <v>Problem 4-38 Part-d (Algo)</v>
       </c>
       <c r="B98" t="str">
         <v>04-02</v>
@@ -4677,7 +4677,7 @@
         <v>2 Medium</v>
       </c>
       <c r="I98" t="str">
-        <v>25 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J98" t="str">
         <v/>
@@ -4697,7 +4697,7 @@
     </row>
     <row r="99">
       <c r="A99" t="str">
-        <v>Problem 4-36 Part-b (Algo)</v>
+        <v>Problem 4-39 Part-a (Static)</v>
       </c>
       <c r="B99" t="str">
         <v>04-02</v>
@@ -4718,10 +4718,10 @@
         <v>Apply</v>
       </c>
       <c r="H99" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I99" t="str">
-        <v>25 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J99" t="str">
         <v/>
@@ -4741,7 +4741,7 @@
     </row>
     <row r="100">
       <c r="A100" t="str">
-        <v>Problem 4-36 Part-c (Algo)</v>
+        <v>Problem 4-39 Part-b (Static)</v>
       </c>
       <c r="B100" t="str">
         <v>04-02</v>
@@ -4762,10 +4762,10 @@
         <v>Apply</v>
       </c>
       <c r="H100" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I100" t="str">
-        <v>25 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J100" t="str">
         <v/>
@@ -4785,7 +4785,7 @@
     </row>
     <row r="101">
       <c r="A101" t="str">
-        <v>Problem 4-36 Part-d (Algo)</v>
+        <v>Problem 4-39 Part-c (Static)</v>
       </c>
       <c r="B101" t="str">
         <v>04-02</v>
@@ -4806,10 +4806,10 @@
         <v>Apply</v>
       </c>
       <c r="H101" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I101" t="str">
-        <v>25 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J101" t="str">
         <v/>
@@ -4829,7 +4829,7 @@
     </row>
     <row r="102">
       <c r="A102" t="str">
-        <v>Problem 4-37 Part-a (Static)</v>
+        <v>Problem 4-39 Part-d (Static)</v>
       </c>
       <c r="B102" t="str">
         <v>04-02</v>
@@ -4850,10 +4850,10 @@
         <v>Apply</v>
       </c>
       <c r="H102" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I102" t="str">
-        <v>15 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J102" t="str">
         <v/>
@@ -4873,13 +4873,13 @@
     </row>
     <row r="103">
       <c r="A103" t="str">
-        <v>Problem 4-37 Part-b (Static)</v>
+        <v>Problem 4-40 Part-a (Static)</v>
       </c>
       <c r="B103" t="str">
-        <v>04-02</v>
+        <v>04-02, 04-03</v>
       </c>
       <c r="C103" t="str">
-        <v>Dependents of the Taxpayer</v>
+        <v>Dependents of the Taxpayer, Filing Status</v>
       </c>
       <c r="D103" t="str">
         <v>Reflective Thinking</v>
@@ -4894,22 +4894,22 @@
         <v>Apply</v>
       </c>
       <c r="H103" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I103" t="str">
-        <v>15 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J103" t="str">
         <v/>
       </c>
       <c r="K103" t="str">
-        <v>Problem</v>
+        <v>Check All That Apply</v>
       </c>
       <c r="L103" t="str">
         <v/>
       </c>
       <c r="M103" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N103" t="str">
         <v xml:space="preserve"> </v>
@@ -4917,13 +4917,13 @@
     </row>
     <row r="104">
       <c r="A104" t="str">
-        <v>Problem 4-37 Part-c (Static)</v>
+        <v>Problem 4-40 Part-b (Static)</v>
       </c>
       <c r="B104" t="str">
-        <v>04-02</v>
+        <v>04-02, 04-03</v>
       </c>
       <c r="C104" t="str">
-        <v>Dependents of the Taxpayer</v>
+        <v>Dependents of the Taxpayer, Filing Status</v>
       </c>
       <c r="D104" t="str">
         <v>Reflective Thinking</v>
@@ -4938,22 +4938,22 @@
         <v>Apply</v>
       </c>
       <c r="H104" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I104" t="str">
-        <v>15 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J104" t="str">
         <v/>
       </c>
       <c r="K104" t="str">
-        <v>Problem</v>
+        <v>Check All That Apply</v>
       </c>
       <c r="L104" t="str">
         <v/>
       </c>
       <c r="M104" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N104" t="str">
         <v xml:space="preserve"> </v>
@@ -4961,13 +4961,13 @@
     </row>
     <row r="105">
       <c r="A105" t="str">
-        <v>Problem 4-37 Part-d (Static)</v>
+        <v>Problem 4-40 Part-c (Static)</v>
       </c>
       <c r="B105" t="str">
-        <v>04-02</v>
+        <v>04-02, 04-03</v>
       </c>
       <c r="C105" t="str">
-        <v>Dependents of the Taxpayer</v>
+        <v>Dependents of the Taxpayer, Filing Status</v>
       </c>
       <c r="D105" t="str">
         <v>Reflective Thinking</v>
@@ -4982,22 +4982,22 @@
         <v>Apply</v>
       </c>
       <c r="H105" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I105" t="str">
-        <v>15 min.</v>
+        <v>20 min.</v>
       </c>
       <c r="J105" t="str">
         <v/>
       </c>
       <c r="K105" t="str">
-        <v>Problem</v>
+        <v>MC</v>
       </c>
       <c r="L105" t="str">
         <v/>
       </c>
       <c r="M105" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N105" t="str">
         <v xml:space="preserve"> </v>
@@ -5005,13 +5005,13 @@
     </row>
     <row r="106">
       <c r="A106" t="str">
-        <v>Problem 4-38 Part-a (Static)</v>
+        <v>Problem 4-42 Part-a (Static)</v>
       </c>
       <c r="B106" t="str">
-        <v>04-02</v>
+        <v>04-02, 04-03</v>
       </c>
       <c r="C106" t="str">
-        <v>Dependents of the Taxpayer</v>
+        <v>Dependents of the Taxpayer, Filing Status</v>
       </c>
       <c r="D106" t="str">
         <v>Reflective Thinking</v>
@@ -5026,7 +5026,7 @@
         <v>Apply</v>
       </c>
       <c r="H106" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I106" t="str">
         <v>20 min.</v>
@@ -5035,13 +5035,13 @@
         <v/>
       </c>
       <c r="K106" t="str">
-        <v>Problem</v>
+        <v>MC</v>
       </c>
       <c r="L106" t="str">
         <v/>
       </c>
       <c r="M106" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N106" t="str">
         <v xml:space="preserve"> </v>
@@ -5049,13 +5049,13 @@
     </row>
     <row r="107">
       <c r="A107" t="str">
-        <v>Problem 4-38 Part-b (Static)</v>
+        <v>Problem 4-42 Part-b (Static)</v>
       </c>
       <c r="B107" t="str">
-        <v>04-02</v>
+        <v>04-02, 04-03</v>
       </c>
       <c r="C107" t="str">
-        <v>Dependents of the Taxpayer</v>
+        <v>Dependents of the Taxpayer, Filing Status</v>
       </c>
       <c r="D107" t="str">
         <v>Reflective Thinking</v>
@@ -5070,7 +5070,7 @@
         <v>Apply</v>
       </c>
       <c r="H107" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I107" t="str">
         <v>20 min.</v>
@@ -5079,13 +5079,13 @@
         <v/>
       </c>
       <c r="K107" t="str">
-        <v>Problem</v>
+        <v>MC</v>
       </c>
       <c r="L107" t="str">
         <v/>
       </c>
       <c r="M107" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N107" t="str">
         <v xml:space="preserve"> </v>
@@ -5093,13 +5093,13 @@
     </row>
     <row r="108">
       <c r="A108" t="str">
-        <v>Problem 4-38 Part-c (Static)</v>
+        <v>Problem 4-43 Part-a (Static)</v>
       </c>
       <c r="B108" t="str">
-        <v>04-02</v>
+        <v>04-02, 04-03</v>
       </c>
       <c r="C108" t="str">
-        <v>Dependents of the Taxpayer</v>
+        <v>Dependents of the Taxpayer, Filing Status</v>
       </c>
       <c r="D108" t="str">
         <v>Reflective Thinking</v>
@@ -5114,7 +5114,7 @@
         <v>Apply</v>
       </c>
       <c r="H108" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I108" t="str">
         <v>20 min.</v>
@@ -5123,13 +5123,13 @@
         <v/>
       </c>
       <c r="K108" t="str">
-        <v>Problem</v>
+        <v>MC</v>
       </c>
       <c r="L108" t="str">
         <v/>
       </c>
       <c r="M108" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N108" t="str">
         <v xml:space="preserve"> </v>
@@ -5137,13 +5137,13 @@
     </row>
     <row r="109">
       <c r="A109" t="str">
-        <v>Problem 4-38 Part-d (Static)</v>
+        <v>Problem 4-43 Part-b (Static)</v>
       </c>
       <c r="B109" t="str">
-        <v>04-02</v>
+        <v>04-02, 04-03</v>
       </c>
       <c r="C109" t="str">
-        <v>Dependents of the Taxpayer</v>
+        <v>Dependents of the Taxpayer, Filing Status</v>
       </c>
       <c r="D109" t="str">
         <v>Reflective Thinking</v>
@@ -5158,7 +5158,7 @@
         <v>Apply</v>
       </c>
       <c r="H109" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I109" t="str">
         <v>20 min.</v>
@@ -5167,13 +5167,13 @@
         <v/>
       </c>
       <c r="K109" t="str">
-        <v>Problem</v>
+        <v>MC</v>
       </c>
       <c r="L109" t="str">
         <v/>
       </c>
       <c r="M109" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N109" t="str">
         <v xml:space="preserve"> </v>
@@ -5181,13 +5181,13 @@
     </row>
     <row r="110">
       <c r="A110" t="str">
-        <v>Problem 4-38 Part-a (Algo)</v>
+        <v>Problem 4-43 Part-c (Static)</v>
       </c>
       <c r="B110" t="str">
-        <v>04-02</v>
+        <v>04-02, 04-03</v>
       </c>
       <c r="C110" t="str">
-        <v>Dependents of the Taxpayer</v>
+        <v>Dependents of the Taxpayer, Filing Status</v>
       </c>
       <c r="D110" t="str">
         <v>Reflective Thinking</v>
@@ -5202,7 +5202,7 @@
         <v>Apply</v>
       </c>
       <c r="H110" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I110" t="str">
         <v>20 min.</v>
@@ -5211,13 +5211,13 @@
         <v/>
       </c>
       <c r="K110" t="str">
-        <v>Problem</v>
+        <v>MC</v>
       </c>
       <c r="L110" t="str">
         <v/>
       </c>
       <c r="M110" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N110" t="str">
         <v xml:space="preserve"> </v>
@@ -5225,13 +5225,13 @@
     </row>
     <row r="111">
       <c r="A111" t="str">
-        <v>Problem 4-38 Part-b (Algo)</v>
+        <v>Problem 4-43 Part-d (Static)</v>
       </c>
       <c r="B111" t="str">
-        <v>04-02</v>
+        <v>04-02, 04-03</v>
       </c>
       <c r="C111" t="str">
-        <v>Dependents of the Taxpayer</v>
+        <v>Dependents of the Taxpayer, Filing Status</v>
       </c>
       <c r="D111" t="str">
         <v>Reflective Thinking</v>
@@ -5246,7 +5246,7 @@
         <v>Apply</v>
       </c>
       <c r="H111" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I111" t="str">
         <v>20 min.</v>
@@ -5255,13 +5255,13 @@
         <v/>
       </c>
       <c r="K111" t="str">
-        <v>Problem</v>
+        <v>MC</v>
       </c>
       <c r="L111" t="str">
         <v/>
       </c>
       <c r="M111" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N111" t="str">
         <v xml:space="preserve"> </v>
@@ -5269,13 +5269,13 @@
     </row>
     <row r="112">
       <c r="A112" t="str">
-        <v>Problem 4-38 Part-c (Algo)</v>
+        <v>Problem 4-43 Part-e (Static)</v>
       </c>
       <c r="B112" t="str">
-        <v>04-02</v>
+        <v>04-02, 04-03</v>
       </c>
       <c r="C112" t="str">
-        <v>Dependents of the Taxpayer</v>
+        <v>Dependents of the Taxpayer, Filing Status</v>
       </c>
       <c r="D112" t="str">
         <v>Reflective Thinking</v>
@@ -5290,7 +5290,7 @@
         <v>Apply</v>
       </c>
       <c r="H112" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I112" t="str">
         <v>20 min.</v>
@@ -5299,13 +5299,13 @@
         <v/>
       </c>
       <c r="K112" t="str">
-        <v>Problem</v>
+        <v>MC</v>
       </c>
       <c r="L112" t="str">
         <v/>
       </c>
       <c r="M112" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N112" t="str">
         <v xml:space="preserve"> </v>
@@ -5313,13 +5313,13 @@
     </row>
     <row r="113">
       <c r="A113" t="str">
-        <v>Problem 4-38 Part-d (Algo)</v>
+        <v>Problem 4-44 Part-a (Static)</v>
       </c>
       <c r="B113" t="str">
-        <v>04-02</v>
+        <v>04-02, 04-03</v>
       </c>
       <c r="C113" t="str">
-        <v>Dependents of the Taxpayer</v>
+        <v>Dependents of the Taxpayer, Filing Status</v>
       </c>
       <c r="D113" t="str">
         <v>Reflective Thinking</v>
@@ -5334,7 +5334,7 @@
         <v>Apply</v>
       </c>
       <c r="H113" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I113" t="str">
         <v>20 min.</v>
@@ -5343,13 +5343,13 @@
         <v/>
       </c>
       <c r="K113" t="str">
-        <v>Problem</v>
+        <v>Check All That Apply</v>
       </c>
       <c r="L113" t="str">
         <v/>
       </c>
       <c r="M113" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N113" t="str">
         <v xml:space="preserve"> </v>
@@ -5357,13 +5357,13 @@
     </row>
     <row r="114">
       <c r="A114" t="str">
-        <v>Problem 4-39 Part-a (Static)</v>
+        <v>Problem 4-44 Part-b (Static)</v>
       </c>
       <c r="B114" t="str">
-        <v>04-02</v>
+        <v>04-02, 04-03</v>
       </c>
       <c r="C114" t="str">
-        <v>Dependents of the Taxpayer</v>
+        <v>Dependents of the Taxpayer, Filing Status</v>
       </c>
       <c r="D114" t="str">
         <v>Reflective Thinking</v>
@@ -5387,13 +5387,13 @@
         <v/>
       </c>
       <c r="K114" t="str">
-        <v>Problem</v>
+        <v>Check All That Apply</v>
       </c>
       <c r="L114" t="str">
         <v/>
       </c>
       <c r="M114" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N114" t="str">
         <v xml:space="preserve"> </v>
@@ -5401,13 +5401,13 @@
     </row>
     <row r="115">
       <c r="A115" t="str">
-        <v>Problem 4-39 Part-b (Static)</v>
+        <v>Problem 4-44 Part-c (Static)</v>
       </c>
       <c r="B115" t="str">
-        <v>04-02</v>
+        <v>04-02, 04-03</v>
       </c>
       <c r="C115" t="str">
-        <v>Dependents of the Taxpayer</v>
+        <v>Dependents of the Taxpayer, Filing Status</v>
       </c>
       <c r="D115" t="str">
         <v>Reflective Thinking</v>
@@ -5431,13 +5431,13 @@
         <v/>
       </c>
       <c r="K115" t="str">
-        <v>Problem</v>
+        <v>MC</v>
       </c>
       <c r="L115" t="str">
         <v/>
       </c>
       <c r="M115" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N115" t="str">
         <v xml:space="preserve"> </v>
@@ -5445,13 +5445,13 @@
     </row>
     <row r="116">
       <c r="A116" t="str">
-        <v>Problem 4-39 Part-c (Static)</v>
+        <v>Problem 4-45 Part-a (Static)</v>
       </c>
       <c r="B116" t="str">
-        <v>04-02</v>
+        <v>04-03</v>
       </c>
       <c r="C116" t="str">
-        <v>Dependents of the Taxpayer</v>
+        <v>Filing Status</v>
       </c>
       <c r="D116" t="str">
         <v>Reflective Thinking</v>
@@ -5466,22 +5466,22 @@
         <v>Apply</v>
       </c>
       <c r="H116" t="str">
-        <v>3 Hard</v>
+        <v>2 Medium</v>
       </c>
       <c r="I116" t="str">
-        <v>20 min.</v>
+        <v>10 min.</v>
       </c>
       <c r="J116" t="str">
         <v/>
       </c>
       <c r="K116" t="str">
-        <v>Problem</v>
+        <v>Multiple Choice</v>
       </c>
       <c r="L116" t="str">
         <v/>
       </c>
       <c r="M116" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
+        <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N116" t="str">
         <v xml:space="preserve"> </v>
@@ -5489,13 +5489,13 @@
     </row>
     <row r="117">
       <c r="A117" t="str">
-        <v>Problem 4-39 Part-d (Static)</v>
+        <v>Problem 4-45 Part-b (Static)</v>
       </c>
       <c r="B117" t="str">
-        <v>04-02</v>
+        <v>04-03</v>
       </c>
       <c r="C117" t="str">
-        <v>Dependents of the Taxpayer</v>
+        <v>Filing Status</v>
       </c>
       <c r="D117" t="str">
         <v>Reflective Thinking</v>
@@ -5510,22 +5510,22 @@
         <v>Apply</v>
       </c>
       <c r="H117" t="str">
-        <v>3 Hard</v>
+        <v>2 Medium</v>
       </c>
       <c r="I117" t="str">
-        <v>20 min.</v>
+        <v>10 min.</v>
       </c>
       <c r="J117" t="str">
         <v/>
       </c>
       <c r="K117" t="str">
-        <v>Problem</v>
+        <v>Multiple Choice</v>
       </c>
       <c r="L117" t="str">
         <v/>
       </c>
       <c r="M117" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.</v>
+        <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N117" t="str">
         <v xml:space="preserve"> </v>
@@ -5533,13 +5533,13 @@
     </row>
     <row r="118">
       <c r="A118" t="str">
-        <v>Problem 4-40 Part-a (Static)</v>
+        <v>Problem 4-45 Part-c (Static)</v>
       </c>
       <c r="B118" t="str">
-        <v>04-02, 04-03</v>
+        <v>04-03</v>
       </c>
       <c r="C118" t="str">
-        <v>Dependents of the Taxpayer, Filing Status</v>
+        <v>Filing Status</v>
       </c>
       <c r="D118" t="str">
         <v>Reflective Thinking</v>
@@ -5554,22 +5554,22 @@
         <v>Apply</v>
       </c>
       <c r="H118" t="str">
-        <v>3 Hard</v>
+        <v>2 Medium</v>
       </c>
       <c r="I118" t="str">
-        <v>20 min.</v>
+        <v>10 min.</v>
       </c>
       <c r="J118" t="str">
         <v/>
       </c>
       <c r="K118" t="str">
-        <v>Check All That Apply</v>
+        <v>Multiple Choice</v>
       </c>
       <c r="L118" t="str">
         <v/>
       </c>
       <c r="M118" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+        <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N118" t="str">
         <v xml:space="preserve"> </v>
@@ -5577,13 +5577,13 @@
     </row>
     <row r="119">
       <c r="A119" t="str">
-        <v>Problem 4-40 Part-b (Static)</v>
+        <v>Problem 4-46 Part-a (Static)</v>
       </c>
       <c r="B119" t="str">
-        <v>04-02, 04-03</v>
+        <v>04-03</v>
       </c>
       <c r="C119" t="str">
-        <v>Dependents of the Taxpayer, Filing Status</v>
+        <v>Filing Status</v>
       </c>
       <c r="D119" t="str">
         <v>Reflective Thinking</v>
@@ -5598,10 +5598,10 @@
         <v>Apply</v>
       </c>
       <c r="H119" t="str">
-        <v>3 Hard</v>
+        <v>2 Medium</v>
       </c>
       <c r="I119" t="str">
-        <v>20 min.</v>
+        <v>10 min.</v>
       </c>
       <c r="J119" t="str">
         <v/>
@@ -5613,7 +5613,7 @@
         <v/>
       </c>
       <c r="M119" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+        <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N119" t="str">
         <v xml:space="preserve"> </v>
@@ -5621,13 +5621,13 @@
     </row>
     <row r="120">
       <c r="A120" t="str">
-        <v>Problem 4-40 Part-c (Static)</v>
+        <v>Problem 4-46 Part-b (Static)</v>
       </c>
       <c r="B120" t="str">
-        <v>04-02, 04-03</v>
+        <v>04-03</v>
       </c>
       <c r="C120" t="str">
-        <v>Dependents of the Taxpayer, Filing Status</v>
+        <v>Filing Status</v>
       </c>
       <c r="D120" t="str">
         <v>Reflective Thinking</v>
@@ -5642,22 +5642,22 @@
         <v>Apply</v>
       </c>
       <c r="H120" t="str">
-        <v>3 Hard</v>
+        <v>2 Medium</v>
       </c>
       <c r="I120" t="str">
-        <v>20 min.</v>
+        <v>10 min.</v>
       </c>
       <c r="J120" t="str">
         <v/>
       </c>
       <c r="K120" t="str">
-        <v>MC</v>
+        <v>Check All That Apply</v>
       </c>
       <c r="L120" t="str">
         <v/>
       </c>
       <c r="M120" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+        <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N120" t="str">
         <v xml:space="preserve"> </v>
@@ -5665,13 +5665,13 @@
     </row>
     <row r="121">
       <c r="A121" t="str">
-        <v>Problem 4-42 Part-a (Static)</v>
+        <v>Problem 4-46 Part-a (Algo)</v>
       </c>
       <c r="B121" t="str">
-        <v>04-02, 04-03</v>
+        <v>04-03</v>
       </c>
       <c r="C121" t="str">
-        <v>Dependents of the Taxpayer, Filing Status</v>
+        <v>Filing Status</v>
       </c>
       <c r="D121" t="str">
         <v>Reflective Thinking</v>
@@ -5686,22 +5686,22 @@
         <v>Apply</v>
       </c>
       <c r="H121" t="str">
-        <v>3 Hard</v>
+        <v>2 Medium</v>
       </c>
       <c r="I121" t="str">
-        <v>20 min.</v>
+        <v>10 min.</v>
       </c>
       <c r="J121" t="str">
         <v/>
       </c>
       <c r="K121" t="str">
-        <v>MC</v>
+        <v>Check All That Apply</v>
       </c>
       <c r="L121" t="str">
         <v/>
       </c>
       <c r="M121" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+        <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N121" t="str">
         <v xml:space="preserve"> </v>
@@ -5709,13 +5709,13 @@
     </row>
     <row r="122">
       <c r="A122" t="str">
-        <v>Problem 4-42 Part-b (Static)</v>
+        <v>Problem 4-46 Part-b (Algo)</v>
       </c>
       <c r="B122" t="str">
-        <v>04-02, 04-03</v>
+        <v>04-03</v>
       </c>
       <c r="C122" t="str">
-        <v>Dependents of the Taxpayer, Filing Status</v>
+        <v>Filing Status</v>
       </c>
       <c r="D122" t="str">
         <v>Reflective Thinking</v>
@@ -5730,22 +5730,22 @@
         <v>Apply</v>
       </c>
       <c r="H122" t="str">
-        <v>3 Hard</v>
+        <v>2 Medium</v>
       </c>
       <c r="I122" t="str">
-        <v>20 min.</v>
+        <v>10 min.</v>
       </c>
       <c r="J122" t="str">
         <v/>
       </c>
       <c r="K122" t="str">
-        <v>MC</v>
+        <v>Check All That Apply</v>
       </c>
       <c r="L122" t="str">
         <v/>
       </c>
       <c r="M122" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+        <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N122" t="str">
         <v xml:space="preserve"> </v>
@@ -5753,13 +5753,13 @@
     </row>
     <row r="123">
       <c r="A123" t="str">
-        <v>Problem 4-43 Part-a (Static)</v>
+        <v>Problem 4-47 Part-a (Static)</v>
       </c>
       <c r="B123" t="str">
-        <v>04-02, 04-03</v>
+        <v>04-03</v>
       </c>
       <c r="C123" t="str">
-        <v>Dependents of the Taxpayer, Filing Status</v>
+        <v>Filing Status</v>
       </c>
       <c r="D123" t="str">
         <v>Reflective Thinking</v>
@@ -5774,7 +5774,7 @@
         <v>Apply</v>
       </c>
       <c r="H123" t="str">
-        <v>3 Hard</v>
+        <v>2 Medium</v>
       </c>
       <c r="I123" t="str">
         <v>20 min.</v>
@@ -5783,13 +5783,13 @@
         <v/>
       </c>
       <c r="K123" t="str">
-        <v>MC</v>
+        <v>Problem</v>
       </c>
       <c r="L123" t="str">
         <v/>
       </c>
       <c r="M123" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+        <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N123" t="str">
         <v xml:space="preserve"> </v>
@@ -5797,13 +5797,13 @@
     </row>
     <row r="124">
       <c r="A124" t="str">
-        <v>Problem 4-43 Part-b (Static)</v>
+        <v>Problem 4-47 Part-b (Static)</v>
       </c>
       <c r="B124" t="str">
-        <v>04-02, 04-03</v>
+        <v>04-03</v>
       </c>
       <c r="C124" t="str">
-        <v>Dependents of the Taxpayer, Filing Status</v>
+        <v>Filing Status</v>
       </c>
       <c r="D124" t="str">
         <v>Reflective Thinking</v>
@@ -5818,7 +5818,7 @@
         <v>Apply</v>
       </c>
       <c r="H124" t="str">
-        <v>3 Hard</v>
+        <v>2 Medium</v>
       </c>
       <c r="I124" t="str">
         <v>20 min.</v>
@@ -5827,13 +5827,13 @@
         <v/>
       </c>
       <c r="K124" t="str">
-        <v>MC</v>
+        <v>Problem</v>
       </c>
       <c r="L124" t="str">
         <v/>
       </c>
       <c r="M124" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+        <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N124" t="str">
         <v xml:space="preserve"> </v>
@@ -5841,13 +5841,13 @@
     </row>
     <row r="125">
       <c r="A125" t="str">
-        <v>Problem 4-43 Part-c (Static)</v>
+        <v>Problem 4-47 Part-c (Static)</v>
       </c>
       <c r="B125" t="str">
-        <v>04-02, 04-03</v>
+        <v>04-03</v>
       </c>
       <c r="C125" t="str">
-        <v>Dependents of the Taxpayer, Filing Status</v>
+        <v>Filing Status</v>
       </c>
       <c r="D125" t="str">
         <v>Reflective Thinking</v>
@@ -5862,7 +5862,7 @@
         <v>Apply</v>
       </c>
       <c r="H125" t="str">
-        <v>3 Hard</v>
+        <v>2 Medium</v>
       </c>
       <c r="I125" t="str">
         <v>20 min.</v>
@@ -5871,13 +5871,13 @@
         <v/>
       </c>
       <c r="K125" t="str">
-        <v>MC</v>
+        <v>Problem</v>
       </c>
       <c r="L125" t="str">
         <v/>
       </c>
       <c r="M125" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+        <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N125" t="str">
         <v xml:space="preserve"> </v>
@@ -5885,13 +5885,13 @@
     </row>
     <row r="126">
       <c r="A126" t="str">
-        <v>Problem 4-43 Part-d (Static)</v>
+        <v>Problem 4-47 Part-a (Algo)</v>
       </c>
       <c r="B126" t="str">
-        <v>04-02, 04-03</v>
+        <v>04-03</v>
       </c>
       <c r="C126" t="str">
-        <v>Dependents of the Taxpayer, Filing Status</v>
+        <v>Filing Status</v>
       </c>
       <c r="D126" t="str">
         <v>Reflective Thinking</v>
@@ -5906,7 +5906,7 @@
         <v>Apply</v>
       </c>
       <c r="H126" t="str">
-        <v>3 Hard</v>
+        <v>2 Medium</v>
       </c>
       <c r="I126" t="str">
         <v>20 min.</v>
@@ -5915,13 +5915,13 @@
         <v/>
       </c>
       <c r="K126" t="str">
-        <v>MC</v>
+        <v>Problem</v>
       </c>
       <c r="L126" t="str">
         <v/>
       </c>
       <c r="M126" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+        <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N126" t="str">
         <v xml:space="preserve"> </v>
@@ -5929,13 +5929,13 @@
     </row>
     <row r="127">
       <c r="A127" t="str">
-        <v>Problem 4-43 Part-e (Static)</v>
+        <v>Problem 4-47 Part-b (Algo)</v>
       </c>
       <c r="B127" t="str">
-        <v>04-02, 04-03</v>
+        <v>04-03</v>
       </c>
       <c r="C127" t="str">
-        <v>Dependents of the Taxpayer, Filing Status</v>
+        <v>Filing Status</v>
       </c>
       <c r="D127" t="str">
         <v>Reflective Thinking</v>
@@ -5950,7 +5950,7 @@
         <v>Apply</v>
       </c>
       <c r="H127" t="str">
-        <v>3 Hard</v>
+        <v>2 Medium</v>
       </c>
       <c r="I127" t="str">
         <v>20 min.</v>
@@ -5959,13 +5959,13 @@
         <v/>
       </c>
       <c r="K127" t="str">
-        <v>MC</v>
+        <v>Problem</v>
       </c>
       <c r="L127" t="str">
         <v/>
       </c>
       <c r="M127" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+        <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N127" t="str">
         <v xml:space="preserve"> </v>
@@ -5973,13 +5973,13 @@
     </row>
     <row r="128">
       <c r="A128" t="str">
-        <v>Problem 4-44 Part-a (Static)</v>
+        <v>Problem 4-47 Part-c (Algo)</v>
       </c>
       <c r="B128" t="str">
-        <v>04-02, 04-03</v>
+        <v>04-03</v>
       </c>
       <c r="C128" t="str">
-        <v>Dependents of the Taxpayer, Filing Status</v>
+        <v>Filing Status</v>
       </c>
       <c r="D128" t="str">
         <v>Reflective Thinking</v>
@@ -5994,7 +5994,7 @@
         <v>Apply</v>
       </c>
       <c r="H128" t="str">
-        <v>3 Hard</v>
+        <v>2 Medium</v>
       </c>
       <c r="I128" t="str">
         <v>20 min.</v>
@@ -6003,13 +6003,13 @@
         <v/>
       </c>
       <c r="K128" t="str">
-        <v>Check All That Apply</v>
+        <v>Problem</v>
       </c>
       <c r="L128" t="str">
         <v/>
       </c>
       <c r="M128" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+        <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N128" t="str">
         <v xml:space="preserve"> </v>
@@ -6017,13 +6017,13 @@
     </row>
     <row r="129">
       <c r="A129" t="str">
-        <v>Problem 4-44 Part-b (Static)</v>
+        <v>Problem 4-48 Part-a (Static)</v>
       </c>
       <c r="B129" t="str">
-        <v>04-02, 04-03</v>
+        <v>04-03</v>
       </c>
       <c r="C129" t="str">
-        <v>Dependents of the Taxpayer, Filing Status</v>
+        <v>Filing Status</v>
       </c>
       <c r="D129" t="str">
         <v>Reflective Thinking</v>
@@ -6041,19 +6041,19 @@
         <v>3 Hard</v>
       </c>
       <c r="I129" t="str">
-        <v>20 min.</v>
+        <v>35 min.</v>
       </c>
       <c r="J129" t="str">
         <v/>
       </c>
       <c r="K129" t="str">
-        <v>Check All That Apply</v>
+        <v>Problem</v>
       </c>
       <c r="L129" t="str">
         <v/>
       </c>
       <c r="M129" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+        <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N129" t="str">
         <v xml:space="preserve"> </v>
@@ -6061,13 +6061,13 @@
     </row>
     <row r="130">
       <c r="A130" t="str">
-        <v>Problem 4-44 Part-c (Static)</v>
+        <v>Problem 4-48 Part-b (Static)</v>
       </c>
       <c r="B130" t="str">
-        <v>04-02, 04-03</v>
+        <v>04-03</v>
       </c>
       <c r="C130" t="str">
-        <v>Dependents of the Taxpayer, Filing Status</v>
+        <v>Filing Status</v>
       </c>
       <c r="D130" t="str">
         <v>Reflective Thinking</v>
@@ -6085,19 +6085,19 @@
         <v>3 Hard</v>
       </c>
       <c r="I130" t="str">
-        <v>20 min.</v>
+        <v>35 min.</v>
       </c>
       <c r="J130" t="str">
         <v/>
       </c>
       <c r="K130" t="str">
-        <v>MC</v>
+        <v>Problem</v>
       </c>
       <c r="L130" t="str">
         <v/>
       </c>
       <c r="M130" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
+        <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N130" t="str">
         <v xml:space="preserve"> </v>
@@ -6105,7 +6105,7 @@
     </row>
     <row r="131">
       <c r="A131" t="str">
-        <v>Problem 4-45 Part-a (Static)</v>
+        <v>Problem 4-48 Part-c (Static)</v>
       </c>
       <c r="B131" t="str">
         <v>04-03</v>
@@ -6126,16 +6126,16 @@
         <v>Apply</v>
       </c>
       <c r="H131" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I131" t="str">
-        <v>10 min.</v>
+        <v>35 min.</v>
       </c>
       <c r="J131" t="str">
         <v/>
       </c>
       <c r="K131" t="str">
-        <v>Multiple Choice</v>
+        <v>Problem</v>
       </c>
       <c r="L131" t="str">
         <v/>
@@ -6149,7 +6149,7 @@
     </row>
     <row r="132">
       <c r="A132" t="str">
-        <v>Problem 4-45 Part-b (Static)</v>
+        <v>Problem 4-48 Part-d (Static)</v>
       </c>
       <c r="B132" t="str">
         <v>04-03</v>
@@ -6170,16 +6170,16 @@
         <v>Apply</v>
       </c>
       <c r="H132" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I132" t="str">
-        <v>10 min.</v>
+        <v>35 min.</v>
       </c>
       <c r="J132" t="str">
         <v/>
       </c>
       <c r="K132" t="str">
-        <v>Multiple Choice</v>
+        <v>Problem</v>
       </c>
       <c r="L132" t="str">
         <v/>
@@ -6193,7 +6193,7 @@
     </row>
     <row r="133">
       <c r="A133" t="str">
-        <v>Problem 4-45 Part-c (Static)</v>
+        <v>Problem 4-48 Part-a (Algo)</v>
       </c>
       <c r="B133" t="str">
         <v>04-03</v>
@@ -6214,16 +6214,16 @@
         <v>Apply</v>
       </c>
       <c r="H133" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I133" t="str">
-        <v>10 min.</v>
+        <v>35 min.</v>
       </c>
       <c r="J133" t="str">
         <v/>
       </c>
       <c r="K133" t="str">
-        <v>Multiple Choice</v>
+        <v>Problem</v>
       </c>
       <c r="L133" t="str">
         <v/>
@@ -6237,7 +6237,7 @@
     </row>
     <row r="134">
       <c r="A134" t="str">
-        <v>Problem 4-46 Part-a (Static)</v>
+        <v>Problem 4-48 Part-b (Algo)</v>
       </c>
       <c r="B134" t="str">
         <v>04-03</v>
@@ -6258,16 +6258,16 @@
         <v>Apply</v>
       </c>
       <c r="H134" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I134" t="str">
-        <v>10 min.</v>
+        <v>35 min.</v>
       </c>
       <c r="J134" t="str">
         <v/>
       </c>
       <c r="K134" t="str">
-        <v>Check All That Apply</v>
+        <v>Problem</v>
       </c>
       <c r="L134" t="str">
         <v/>
@@ -6281,7 +6281,7 @@
     </row>
     <row r="135">
       <c r="A135" t="str">
-        <v>Problem 4-46 Part-b (Static)</v>
+        <v>Problem 4-48 Part-c (Algo)</v>
       </c>
       <c r="B135" t="str">
         <v>04-03</v>
@@ -6302,16 +6302,16 @@
         <v>Apply</v>
       </c>
       <c r="H135" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I135" t="str">
-        <v>10 min.</v>
+        <v>35 min.</v>
       </c>
       <c r="J135" t="str">
         <v/>
       </c>
       <c r="K135" t="str">
-        <v>Check All That Apply</v>
+        <v>Problem</v>
       </c>
       <c r="L135" t="str">
         <v/>
@@ -6325,7 +6325,7 @@
     </row>
     <row r="136">
       <c r="A136" t="str">
-        <v>Problem 4-46 Part-a (Algo)</v>
+        <v>Problem 4-48 Part-d (Algo)</v>
       </c>
       <c r="B136" t="str">
         <v>04-03</v>
@@ -6346,16 +6346,16 @@
         <v>Apply</v>
       </c>
       <c r="H136" t="str">
-        <v>2 Medium</v>
+        <v>3 Hard</v>
       </c>
       <c r="I136" t="str">
-        <v>10 min.</v>
+        <v>35 min.</v>
       </c>
       <c r="J136" t="str">
         <v/>
       </c>
       <c r="K136" t="str">
-        <v>Check All That Apply</v>
+        <v>Problem</v>
       </c>
       <c r="L136" t="str">
         <v/>
@@ -6369,7 +6369,7 @@
     </row>
     <row r="137">
       <c r="A137" t="str">
-        <v>Problem 4-46 Part-b (Algo)</v>
+        <v>Problem 4-49 Part-a (Static)</v>
       </c>
       <c r="B137" t="str">
         <v>04-03</v>
@@ -6393,13 +6393,13 @@
         <v>2 Medium</v>
       </c>
       <c r="I137" t="str">
-        <v>10 min.</v>
+        <v>25 min.</v>
       </c>
       <c r="J137" t="str">
         <v/>
       </c>
       <c r="K137" t="str">
-        <v>Check All That Apply</v>
+        <v>Problem</v>
       </c>
       <c r="L137" t="str">
         <v/>
@@ -6413,7 +6413,7 @@
     </row>
     <row r="138">
       <c r="A138" t="str">
-        <v>Problem 4-47 Part-a (Static)</v>
+        <v>Problem 4-49 Part-b (Static)</v>
       </c>
       <c r="B138" t="str">
         <v>04-03</v>
@@ -6437,7 +6437,7 @@
         <v>2 Medium</v>
       </c>
       <c r="I138" t="str">
-        <v>20 min.</v>
+        <v>25 min.</v>
       </c>
       <c r="J138" t="str">
         <v/>
@@ -6457,7 +6457,7 @@
     </row>
     <row r="139">
       <c r="A139" t="str">
-        <v>Problem 4-47 Part-b (Static)</v>
+        <v>Problem 4-49 Part-c (Static)</v>
       </c>
       <c r="B139" t="str">
         <v>04-03</v>
@@ -6481,7 +6481,7 @@
         <v>2 Medium</v>
       </c>
       <c r="I139" t="str">
-        <v>20 min.</v>
+        <v>25 min.</v>
       </c>
       <c r="J139" t="str">
         <v/>
@@ -6501,7 +6501,7 @@
     </row>
     <row r="140">
       <c r="A140" t="str">
-        <v>Problem 4-47 Part-c (Static)</v>
+        <v>Problem 4-49 Part-d (Static)</v>
       </c>
       <c r="B140" t="str">
         <v>04-03</v>
@@ -6525,7 +6525,7 @@
         <v>2 Medium</v>
       </c>
       <c r="I140" t="str">
-        <v>20 min.</v>
+        <v>25 min.</v>
       </c>
       <c r="J140" t="str">
         <v/>
@@ -6545,7 +6545,7 @@
     </row>
     <row r="141">
       <c r="A141" t="str">
-        <v>Problem 4-47 Part-a (Algo)</v>
+        <v>Problem 4-49 Part-e (Static)</v>
       </c>
       <c r="B141" t="str">
         <v>04-03</v>
@@ -6569,7 +6569,7 @@
         <v>2 Medium</v>
       </c>
       <c r="I141" t="str">
-        <v>20 min.</v>
+        <v>25 min.</v>
       </c>
       <c r="J141" t="str">
         <v/>
@@ -6589,13 +6589,13 @@
     </row>
     <row r="142">
       <c r="A142" t="str">
-        <v>Problem 4-47 Part-b (Algo)</v>
+        <v>Problem 4-50 Part-a (Static)</v>
       </c>
       <c r="B142" t="str">
-        <v>04-03</v>
+        <v>04-02, 04-03</v>
       </c>
       <c r="C142" t="str">
-        <v>Filing Status</v>
+        <v>Dependents of the Taxpayer, Filing Status</v>
       </c>
       <c r="D142" t="str">
         <v>Reflective Thinking</v>
@@ -6613,7 +6613,7 @@
         <v>2 Medium</v>
       </c>
       <c r="I142" t="str">
-        <v>20 min.</v>
+        <v>25 min.</v>
       </c>
       <c r="J142" t="str">
         <v/>
@@ -6625,7 +6625,7 @@
         <v/>
       </c>
       <c r="M142" t="str">
-        <v>04-03  Determine a taxpayer's filing status.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N142" t="str">
         <v xml:space="preserve"> </v>
@@ -6633,13 +6633,13 @@
     </row>
     <row r="143">
       <c r="A143" t="str">
-        <v>Problem 4-47 Part-c (Algo)</v>
+        <v>Problem 4-50 Part-b (Static)</v>
       </c>
       <c r="B143" t="str">
-        <v>04-03</v>
+        <v>04-02, 04-03</v>
       </c>
       <c r="C143" t="str">
-        <v>Filing Status</v>
+        <v>Dependents of the Taxpayer, Filing Status</v>
       </c>
       <c r="D143" t="str">
         <v>Reflective Thinking</v>
@@ -6657,7 +6657,7 @@
         <v>2 Medium</v>
       </c>
       <c r="I143" t="str">
-        <v>20 min.</v>
+        <v>25 min.</v>
       </c>
       <c r="J143" t="str">
         <v/>
@@ -6669,7 +6669,7 @@
         <v/>
       </c>
       <c r="M143" t="str">
-        <v>04-03  Determine a taxpayer's filing status.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N143" t="str">
         <v xml:space="preserve"> </v>
@@ -6677,13 +6677,13 @@
     </row>
     <row r="144">
       <c r="A144" t="str">
-        <v>Problem 4-48 Part-a (Static)</v>
+        <v>Problem 4-50 Part-c (Static)</v>
       </c>
       <c r="B144" t="str">
-        <v>04-03</v>
+        <v>04-02, 04-03</v>
       </c>
       <c r="C144" t="str">
-        <v>Filing Status</v>
+        <v>Dependents of the Taxpayer, Filing Status</v>
       </c>
       <c r="D144" t="str">
         <v>Reflective Thinking</v>
@@ -6698,10 +6698,10 @@
         <v>Apply</v>
       </c>
       <c r="H144" t="str">
-        <v>3 Hard</v>
+        <v>2 Medium</v>
       </c>
       <c r="I144" t="str">
-        <v>35 min.</v>
+        <v>25 min.</v>
       </c>
       <c r="J144" t="str">
         <v/>
@@ -6713,7 +6713,7 @@
         <v/>
       </c>
       <c r="M144" t="str">
-        <v>04-03  Determine a taxpayer's filing status.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N144" t="str">
         <v xml:space="preserve"> </v>
@@ -6721,13 +6721,13 @@
     </row>
     <row r="145">
       <c r="A145" t="str">
-        <v>Problem 4-48 Part-b (Static)</v>
+        <v>Problem 4-50 Part-d (Static)</v>
       </c>
       <c r="B145" t="str">
-        <v>04-03</v>
+        <v>04-02, 04-03</v>
       </c>
       <c r="C145" t="str">
-        <v>Filing Status</v>
+        <v>Dependents of the Taxpayer, Filing Status</v>
       </c>
       <c r="D145" t="str">
         <v>Reflective Thinking</v>
@@ -6742,10 +6742,10 @@
         <v>Apply</v>
       </c>
       <c r="H145" t="str">
-        <v>3 Hard</v>
+        <v>2 Medium</v>
       </c>
       <c r="I145" t="str">
-        <v>35 min.</v>
+        <v>25 min.</v>
       </c>
       <c r="J145" t="str">
         <v/>
@@ -6757,7 +6757,7 @@
         <v/>
       </c>
       <c r="M145" t="str">
-        <v>04-03  Determine a taxpayer's filing status.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N145" t="str">
         <v xml:space="preserve"> </v>
@@ -6765,13 +6765,13 @@
     </row>
     <row r="146">
       <c r="A146" t="str">
-        <v>Problem 4-48 Part-c (Static)</v>
+        <v>Problem 4-50 Part-e (Static)</v>
       </c>
       <c r="B146" t="str">
-        <v>04-03</v>
+        <v>04-02, 04-03</v>
       </c>
       <c r="C146" t="str">
-        <v>Filing Status</v>
+        <v>Dependents of the Taxpayer, Filing Status</v>
       </c>
       <c r="D146" t="str">
         <v>Reflective Thinking</v>
@@ -6786,22 +6786,22 @@
         <v>Apply</v>
       </c>
       <c r="H146" t="str">
-        <v>3 Hard</v>
+        <v>2 Medium</v>
       </c>
       <c r="I146" t="str">
-        <v>35 min.</v>
+        <v>25 min.</v>
       </c>
       <c r="J146" t="str">
         <v/>
       </c>
       <c r="K146" t="str">
-        <v>Problem</v>
+        <v>Multiple Choice</v>
       </c>
       <c r="L146" t="str">
         <v/>
       </c>
       <c r="M146" t="str">
-        <v>04-03  Determine a taxpayer's filing status.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N146" t="str">
         <v xml:space="preserve"> </v>
@@ -6809,13 +6809,13 @@
     </row>
     <row r="147">
       <c r="A147" t="str">
-        <v>Problem 4-48 Part-d (Static)</v>
+        <v>Problem 4-51 Part-a (Static)</v>
       </c>
       <c r="B147" t="str">
-        <v>04-03</v>
+        <v>04-02, 04-03</v>
       </c>
       <c r="C147" t="str">
-        <v>Filing Status</v>
+        <v>Dependents of the Taxpayer, Filing Status</v>
       </c>
       <c r="D147" t="str">
         <v>Reflective Thinking</v>
@@ -6830,10 +6830,10 @@
         <v>Apply</v>
       </c>
       <c r="H147" t="str">
-        <v>3 Hard</v>
+        <v>2 Medium</v>
       </c>
       <c r="I147" t="str">
-        <v>35 min.</v>
+        <v>25 min.</v>
       </c>
       <c r="J147" t="str">
         <v/>
@@ -6845,7 +6845,7 @@
         <v/>
       </c>
       <c r="M147" t="str">
-        <v>04-03  Determine a taxpayer's filing status.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N147" t="str">
         <v xml:space="preserve"> </v>
@@ -6853,13 +6853,13 @@
     </row>
     <row r="148">
       <c r="A148" t="str">
-        <v>Problem 4-48 Part-a (Algo)</v>
+        <v>Problem 4-51 Part-b (Static)</v>
       </c>
       <c r="B148" t="str">
-        <v>04-03</v>
+        <v>04-02, 04-03</v>
       </c>
       <c r="C148" t="str">
-        <v>Filing Status</v>
+        <v>Dependents of the Taxpayer, Filing Status</v>
       </c>
       <c r="D148" t="str">
         <v>Reflective Thinking</v>
@@ -6874,10 +6874,10 @@
         <v>Apply</v>
       </c>
       <c r="H148" t="str">
-        <v>3 Hard</v>
+        <v>2 Medium</v>
       </c>
       <c r="I148" t="str">
-        <v>35 min.</v>
+        <v>25 min.</v>
       </c>
       <c r="J148" t="str">
         <v/>
@@ -6889,7 +6889,7 @@
         <v/>
       </c>
       <c r="M148" t="str">
-        <v>04-03  Determine a taxpayer's filing status.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N148" t="str">
         <v xml:space="preserve"> </v>
@@ -6897,13 +6897,13 @@
     </row>
     <row r="149">
       <c r="A149" t="str">
-        <v>Problem 4-48 Part-b (Algo)</v>
+        <v>Problem 4-51 Part-c (Static)</v>
       </c>
       <c r="B149" t="str">
-        <v>04-03</v>
+        <v>04-02, 04-03</v>
       </c>
       <c r="C149" t="str">
-        <v>Filing Status</v>
+        <v>Dependents of the Taxpayer, Filing Status</v>
       </c>
       <c r="D149" t="str">
         <v>Reflective Thinking</v>
@@ -6918,10 +6918,10 @@
         <v>Apply</v>
       </c>
       <c r="H149" t="str">
-        <v>3 Hard</v>
+        <v>2 Medium</v>
       </c>
       <c r="I149" t="str">
-        <v>35 min.</v>
+        <v>25 min.</v>
       </c>
       <c r="J149" t="str">
         <v/>
@@ -6933,7 +6933,7 @@
         <v/>
       </c>
       <c r="M149" t="str">
-        <v>04-03  Determine a taxpayer's filing status.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N149" t="str">
         <v xml:space="preserve"> </v>
@@ -6941,13 +6941,13 @@
     </row>
     <row r="150">
       <c r="A150" t="str">
-        <v>Problem 4-48 Part-c (Algo)</v>
+        <v>Problem 4-51 Part-d (Static)</v>
       </c>
       <c r="B150" t="str">
-        <v>04-03</v>
+        <v>04-02, 04-03</v>
       </c>
       <c r="C150" t="str">
-        <v>Filing Status</v>
+        <v>Dependents of the Taxpayer, Filing Status</v>
       </c>
       <c r="D150" t="str">
         <v>Reflective Thinking</v>
@@ -6962,10 +6962,10 @@
         <v>Apply</v>
       </c>
       <c r="H150" t="str">
-        <v>3 Hard</v>
+        <v>2 Medium</v>
       </c>
       <c r="I150" t="str">
-        <v>35 min.</v>
+        <v>25 min.</v>
       </c>
       <c r="J150" t="str">
         <v/>
@@ -6977,7 +6977,7 @@
         <v/>
       </c>
       <c r="M150" t="str">
-        <v>04-03  Determine a taxpayer's filing status.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N150" t="str">
         <v xml:space="preserve"> </v>
@@ -6985,13 +6985,13 @@
     </row>
     <row r="151">
       <c r="A151" t="str">
-        <v>Problem 4-48 Part-d (Algo)</v>
+        <v>Problem 4-51 Part-e (Static)</v>
       </c>
       <c r="B151" t="str">
-        <v>04-03</v>
+        <v>04-02, 04-03</v>
       </c>
       <c r="C151" t="str">
-        <v>Filing Status</v>
+        <v>Dependents of the Taxpayer, Filing Status</v>
       </c>
       <c r="D151" t="str">
         <v>Reflective Thinking</v>
@@ -7006,10 +7006,10 @@
         <v>Apply</v>
       </c>
       <c r="H151" t="str">
-        <v>3 Hard</v>
+        <v>2 Medium</v>
       </c>
       <c r="I151" t="str">
-        <v>35 min.</v>
+        <v>25 min.</v>
       </c>
       <c r="J151" t="str">
         <v/>
@@ -7021,7 +7021,7 @@
         <v/>
       </c>
       <c r="M151" t="str">
-        <v>04-03  Determine a taxpayer's filing status.</v>
+        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N151" t="str">
         <v xml:space="preserve"> </v>
@@ -7029,7 +7029,7 @@
     </row>
     <row r="152">
       <c r="A152" t="str">
-        <v>Problem 4-49 Part-a (Static)</v>
+        <v>Problem 4-52 Part-a (Static)</v>
       </c>
       <c r="B152" t="str">
         <v>04-03</v>
@@ -7053,7 +7053,7 @@
         <v>2 Medium</v>
       </c>
       <c r="I152" t="str">
-        <v>25 min.</v>
+        <v>15 min.</v>
       </c>
       <c r="J152" t="str">
         <v/>
@@ -7073,7 +7073,7 @@
     </row>
     <row r="153">
       <c r="A153" t="str">
-        <v>Problem 4-49 Part-b (Static)</v>
+        <v>Problem 4-52 Part-b (Static)</v>
       </c>
       <c r="B153" t="str">
         <v>04-03</v>
@@ -7097,7 +7097,7 @@
         <v>2 Medium</v>
       </c>
       <c r="I153" t="str">
-        <v>25 min.</v>
+        <v>15 min.</v>
       </c>
       <c r="J153" t="str">
         <v/>
@@ -7117,7 +7117,7 @@
     </row>
     <row r="154">
       <c r="A154" t="str">
-        <v>Problem 4-49 Part-c (Static)</v>
+        <v>Problem 4-52 Part-a (Algo)</v>
       </c>
       <c r="B154" t="str">
         <v>04-03</v>
@@ -7141,7 +7141,7 @@
         <v>2 Medium</v>
       </c>
       <c r="I154" t="str">
-        <v>25 min.</v>
+        <v>15 min.</v>
       </c>
       <c r="J154" t="str">
         <v/>
@@ -7161,7 +7161,7 @@
     </row>
     <row r="155">
       <c r="A155" t="str">
-        <v>Problem 4-49 Part-d (Static)</v>
+        <v>Problem 4-52 Part-b (Algo)</v>
       </c>
       <c r="B155" t="str">
         <v>04-03</v>
@@ -7185,7 +7185,7 @@
         <v>2 Medium</v>
       </c>
       <c r="I155" t="str">
-        <v>25 min.</v>
+        <v>15 min.</v>
       </c>
       <c r="J155" t="str">
         <v/>
@@ -7205,7 +7205,7 @@
     </row>
     <row r="156">
       <c r="A156" t="str">
-        <v>Problem 4-49 Part-e (Static)</v>
+        <v>Problem 4-54 (LO 4-3) (Static)</v>
       </c>
       <c r="B156" t="str">
         <v>04-03</v>
@@ -7229,13 +7229,13 @@
         <v>2 Medium</v>
       </c>
       <c r="I156" t="str">
-        <v>25 min.</v>
+        <v>15 min.</v>
       </c>
       <c r="J156" t="str">
         <v/>
       </c>
       <c r="K156" t="str">
-        <v>Problem</v>
+        <v>MC</v>
       </c>
       <c r="L156" t="str">
         <v/>
@@ -7244,680 +7244,20 @@
         <v>04-03  Determine a taxpayer's filing status.</v>
       </c>
       <c r="N156" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="157">
-      <c r="A157" t="str">
-        <v>Problem 4-50 Part-a (Static)</v>
-      </c>
-      <c r="B157" t="str">
-        <v>04-02, 04-03</v>
-      </c>
-      <c r="C157" t="str">
-        <v>Dependents of the Taxpayer, Filing Status</v>
-      </c>
-      <c r="D157" t="str">
-        <v>Reflective Thinking</v>
-      </c>
-      <c r="E157" t="str">
-        <v/>
-      </c>
-      <c r="F157" t="str">
-        <v/>
-      </c>
-      <c r="G157" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H157" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I157" t="str">
-        <v>25 min.</v>
-      </c>
-      <c r="J157" t="str">
-        <v/>
-      </c>
-      <c r="K157" t="str">
-        <v>Problem</v>
-      </c>
-      <c r="L157" t="str">
-        <v/>
-      </c>
-      <c r="M157" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
-      </c>
-      <c r="N157" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="158">
-      <c r="A158" t="str">
-        <v>Problem 4-50 Part-b (Static)</v>
-      </c>
-      <c r="B158" t="str">
-        <v>04-02, 04-03</v>
-      </c>
-      <c r="C158" t="str">
-        <v>Dependents of the Taxpayer, Filing Status</v>
-      </c>
-      <c r="D158" t="str">
-        <v>Reflective Thinking</v>
-      </c>
-      <c r="E158" t="str">
-        <v/>
-      </c>
-      <c r="F158" t="str">
-        <v/>
-      </c>
-      <c r="G158" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H158" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I158" t="str">
-        <v>25 min.</v>
-      </c>
-      <c r="J158" t="str">
-        <v/>
-      </c>
-      <c r="K158" t="str">
-        <v>Problem</v>
-      </c>
-      <c r="L158" t="str">
-        <v/>
-      </c>
-      <c r="M158" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
-      </c>
-      <c r="N158" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="159">
-      <c r="A159" t="str">
-        <v>Problem 4-50 Part-c (Static)</v>
-      </c>
-      <c r="B159" t="str">
-        <v>04-02, 04-03</v>
-      </c>
-      <c r="C159" t="str">
-        <v>Dependents of the Taxpayer, Filing Status</v>
-      </c>
-      <c r="D159" t="str">
-        <v>Reflective Thinking</v>
-      </c>
-      <c r="E159" t="str">
-        <v/>
-      </c>
-      <c r="F159" t="str">
-        <v/>
-      </c>
-      <c r="G159" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H159" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I159" t="str">
-        <v>25 min.</v>
-      </c>
-      <c r="J159" t="str">
-        <v/>
-      </c>
-      <c r="K159" t="str">
-        <v>Problem</v>
-      </c>
-      <c r="L159" t="str">
-        <v/>
-      </c>
-      <c r="M159" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
-      </c>
-      <c r="N159" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="160">
-      <c r="A160" t="str">
-        <v>Problem 4-50 Part-d (Static)</v>
-      </c>
-      <c r="B160" t="str">
-        <v>04-02, 04-03</v>
-      </c>
-      <c r="C160" t="str">
-        <v>Dependents of the Taxpayer, Filing Status</v>
-      </c>
-      <c r="D160" t="str">
-        <v>Reflective Thinking</v>
-      </c>
-      <c r="E160" t="str">
-        <v/>
-      </c>
-      <c r="F160" t="str">
-        <v/>
-      </c>
-      <c r="G160" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H160" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I160" t="str">
-        <v>25 min.</v>
-      </c>
-      <c r="J160" t="str">
-        <v/>
-      </c>
-      <c r="K160" t="str">
-        <v>Problem</v>
-      </c>
-      <c r="L160" t="str">
-        <v/>
-      </c>
-      <c r="M160" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
-      </c>
-      <c r="N160" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="161">
-      <c r="A161" t="str">
-        <v>Problem 4-50 Part-e (Static)</v>
-      </c>
-      <c r="B161" t="str">
-        <v>04-02, 04-03</v>
-      </c>
-      <c r="C161" t="str">
-        <v>Dependents of the Taxpayer, Filing Status</v>
-      </c>
-      <c r="D161" t="str">
-        <v>Reflective Thinking</v>
-      </c>
-      <c r="E161" t="str">
-        <v/>
-      </c>
-      <c r="F161" t="str">
-        <v/>
-      </c>
-      <c r="G161" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H161" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I161" t="str">
-        <v>25 min.</v>
-      </c>
-      <c r="J161" t="str">
-        <v/>
-      </c>
-      <c r="K161" t="str">
-        <v>Multiple Choice</v>
-      </c>
-      <c r="L161" t="str">
-        <v/>
-      </c>
-      <c r="M161" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
-      </c>
-      <c r="N161" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="162">
-      <c r="A162" t="str">
-        <v>Problem 4-51 Part-a (Static)</v>
-      </c>
-      <c r="B162" t="str">
-        <v>04-02, 04-03</v>
-      </c>
-      <c r="C162" t="str">
-        <v>Dependents of the Taxpayer, Filing Status</v>
-      </c>
-      <c r="D162" t="str">
-        <v>Reflective Thinking</v>
-      </c>
-      <c r="E162" t="str">
-        <v/>
-      </c>
-      <c r="F162" t="str">
-        <v/>
-      </c>
-      <c r="G162" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H162" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I162" t="str">
-        <v>25 min.</v>
-      </c>
-      <c r="J162" t="str">
-        <v/>
-      </c>
-      <c r="K162" t="str">
-        <v>Problem</v>
-      </c>
-      <c r="L162" t="str">
-        <v/>
-      </c>
-      <c r="M162" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
-      </c>
-      <c r="N162" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="163">
-      <c r="A163" t="str">
-        <v>Problem 4-51 Part-b (Static)</v>
-      </c>
-      <c r="B163" t="str">
-        <v>04-02, 04-03</v>
-      </c>
-      <c r="C163" t="str">
-        <v>Dependents of the Taxpayer, Filing Status</v>
-      </c>
-      <c r="D163" t="str">
-        <v>Reflective Thinking</v>
-      </c>
-      <c r="E163" t="str">
-        <v/>
-      </c>
-      <c r="F163" t="str">
-        <v/>
-      </c>
-      <c r="G163" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H163" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I163" t="str">
-        <v>25 min.</v>
-      </c>
-      <c r="J163" t="str">
-        <v/>
-      </c>
-      <c r="K163" t="str">
-        <v>Problem</v>
-      </c>
-      <c r="L163" t="str">
-        <v/>
-      </c>
-      <c r="M163" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
-      </c>
-      <c r="N163" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="164">
-      <c r="A164" t="str">
-        <v>Problem 4-51 Part-c (Static)</v>
-      </c>
-      <c r="B164" t="str">
-        <v>04-02, 04-03</v>
-      </c>
-      <c r="C164" t="str">
-        <v>Dependents of the Taxpayer, Filing Status</v>
-      </c>
-      <c r="D164" t="str">
-        <v>Reflective Thinking</v>
-      </c>
-      <c r="E164" t="str">
-        <v/>
-      </c>
-      <c r="F164" t="str">
-        <v/>
-      </c>
-      <c r="G164" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H164" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I164" t="str">
-        <v>25 min.</v>
-      </c>
-      <c r="J164" t="str">
-        <v/>
-      </c>
-      <c r="K164" t="str">
-        <v>Problem</v>
-      </c>
-      <c r="L164" t="str">
-        <v/>
-      </c>
-      <c r="M164" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
-      </c>
-      <c r="N164" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="165">
-      <c r="A165" t="str">
-        <v>Problem 4-51 Part-d (Static)</v>
-      </c>
-      <c r="B165" t="str">
-        <v>04-02, 04-03</v>
-      </c>
-      <c r="C165" t="str">
-        <v>Dependents of the Taxpayer, Filing Status</v>
-      </c>
-      <c r="D165" t="str">
-        <v>Reflective Thinking</v>
-      </c>
-      <c r="E165" t="str">
-        <v/>
-      </c>
-      <c r="F165" t="str">
-        <v/>
-      </c>
-      <c r="G165" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H165" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I165" t="str">
-        <v>25 min.</v>
-      </c>
-      <c r="J165" t="str">
-        <v/>
-      </c>
-      <c r="K165" t="str">
-        <v>Problem</v>
-      </c>
-      <c r="L165" t="str">
-        <v/>
-      </c>
-      <c r="M165" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
-      </c>
-      <c r="N165" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="166">
-      <c r="A166" t="str">
-        <v>Problem 4-51 Part-e (Static)</v>
-      </c>
-      <c r="B166" t="str">
-        <v>04-02, 04-03</v>
-      </c>
-      <c r="C166" t="str">
-        <v>Dependents of the Taxpayer, Filing Status</v>
-      </c>
-      <c r="D166" t="str">
-        <v>Reflective Thinking</v>
-      </c>
-      <c r="E166" t="str">
-        <v/>
-      </c>
-      <c r="F166" t="str">
-        <v/>
-      </c>
-      <c r="G166" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H166" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I166" t="str">
-        <v>25 min.</v>
-      </c>
-      <c r="J166" t="str">
-        <v/>
-      </c>
-      <c r="K166" t="str">
-        <v>Problem</v>
-      </c>
-      <c r="L166" t="str">
-        <v/>
-      </c>
-      <c r="M166" t="str">
-        <v>04-02  Explain the requirements for determining who qualifies as a taxpayer's dependent.;04-03  Determine a taxpayer's filing status.</v>
-      </c>
-      <c r="N166" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="167">
-      <c r="A167" t="str">
-        <v>Problem 4-52 Part-a (Static)</v>
-      </c>
-      <c r="B167" t="str">
-        <v>04-03</v>
-      </c>
-      <c r="C167" t="str">
-        <v>Filing Status</v>
-      </c>
-      <c r="D167" t="str">
-        <v>Reflective Thinking</v>
-      </c>
-      <c r="E167" t="str">
-        <v/>
-      </c>
-      <c r="F167" t="str">
-        <v/>
-      </c>
-      <c r="G167" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H167" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I167" t="str">
-        <v>15 min.</v>
-      </c>
-      <c r="J167" t="str">
-        <v/>
-      </c>
-      <c r="K167" t="str">
-        <v>Problem</v>
-      </c>
-      <c r="L167" t="str">
-        <v/>
-      </c>
-      <c r="M167" t="str">
-        <v>04-03  Determine a taxpayer's filing status.</v>
-      </c>
-      <c r="N167" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="168">
-      <c r="A168" t="str">
-        <v>Problem 4-52 Part-b (Static)</v>
-      </c>
-      <c r="B168" t="str">
-        <v>04-03</v>
-      </c>
-      <c r="C168" t="str">
-        <v>Filing Status</v>
-      </c>
-      <c r="D168" t="str">
-        <v>Reflective Thinking</v>
-      </c>
-      <c r="E168" t="str">
-        <v/>
-      </c>
-      <c r="F168" t="str">
-        <v/>
-      </c>
-      <c r="G168" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H168" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I168" t="str">
-        <v>15 min.</v>
-      </c>
-      <c r="J168" t="str">
-        <v/>
-      </c>
-      <c r="K168" t="str">
-        <v>Problem</v>
-      </c>
-      <c r="L168" t="str">
-        <v/>
-      </c>
-      <c r="M168" t="str">
-        <v>04-03  Determine a taxpayer's filing status.</v>
-      </c>
-      <c r="N168" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="169">
-      <c r="A169" t="str">
-        <v>Problem 4-52 Part-a (Algo)</v>
-      </c>
-      <c r="B169" t="str">
-        <v>04-03</v>
-      </c>
-      <c r="C169" t="str">
-        <v>Filing Status</v>
-      </c>
-      <c r="D169" t="str">
-        <v>Reflective Thinking</v>
-      </c>
-      <c r="E169" t="str">
-        <v/>
-      </c>
-      <c r="F169" t="str">
-        <v/>
-      </c>
-      <c r="G169" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H169" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I169" t="str">
-        <v>15 min.</v>
-      </c>
-      <c r="J169" t="str">
-        <v/>
-      </c>
-      <c r="K169" t="str">
-        <v>Problem</v>
-      </c>
-      <c r="L169" t="str">
-        <v/>
-      </c>
-      <c r="M169" t="str">
-        <v>04-03  Determine a taxpayer's filing status.</v>
-      </c>
-      <c r="N169" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="170">
-      <c r="A170" t="str">
-        <v>Problem 4-52 Part-b (Algo)</v>
-      </c>
-      <c r="B170" t="str">
-        <v>04-03</v>
-      </c>
-      <c r="C170" t="str">
-        <v>Filing Status</v>
-      </c>
-      <c r="D170" t="str">
-        <v>Reflective Thinking</v>
-      </c>
-      <c r="E170" t="str">
-        <v/>
-      </c>
-      <c r="F170" t="str">
-        <v/>
-      </c>
-      <c r="G170" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H170" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I170" t="str">
-        <v>15 min.</v>
-      </c>
-      <c r="J170" t="str">
-        <v/>
-      </c>
-      <c r="K170" t="str">
-        <v>Problem</v>
-      </c>
-      <c r="L170" t="str">
-        <v/>
-      </c>
-      <c r="M170" t="str">
-        <v>04-03  Determine a taxpayer's filing status.</v>
-      </c>
-      <c r="N170" t="str">
-        <v xml:space="preserve"> </v>
-      </c>
-    </row>
-    <row r="171">
-      <c r="A171" t="str">
-        <v>Problem 4-54 (LO 4-3) (Static)</v>
-      </c>
-      <c r="B171" t="str">
-        <v>04-03</v>
-      </c>
-      <c r="C171" t="str">
-        <v>Filing Status</v>
-      </c>
-      <c r="D171" t="str">
-        <v>Reflective Thinking</v>
-      </c>
-      <c r="E171" t="str">
-        <v/>
-      </c>
-      <c r="F171" t="str">
-        <v/>
-      </c>
-      <c r="G171" t="str">
-        <v>Apply</v>
-      </c>
-      <c r="H171" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I171" t="str">
-        <v>15 min.</v>
-      </c>
-      <c r="J171" t="str">
-        <v/>
-      </c>
-      <c r="K171" t="str">
-        <v>MC</v>
-      </c>
-      <c r="L171" t="str">
-        <v/>
-      </c>
-      <c r="M171" t="str">
-        <v>04-03  Determine a taxpayer's filing status.</v>
-      </c>
-      <c r="N171" t="str">
         <v xml:space="preserve"> </v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:N171"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:N156"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K72"/>
+  <dimension ref="A1:K57"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -7970,6 +7310,12 @@
       <c r="D2" t="str">
         <v>Analytical Thinking</v>
       </c>
+      <c r="E2" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F2" t="str">
+        <v>Na</v>
+      </c>
       <c r="G2" t="str">
         <v>Apply</v>
       </c>
@@ -7999,6 +7345,12 @@
       <c r="D3" t="str">
         <v>Analytical Thinking</v>
       </c>
+      <c r="E3" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F3" t="str">
+        <v>Na</v>
+      </c>
       <c r="G3" t="str">
         <v>Apply</v>
       </c>
@@ -8028,6 +7380,12 @@
       <c r="D4" t="str">
         <v>Analytical Thinking</v>
       </c>
+      <c r="E4" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F4" t="str">
+        <v>Na</v>
+      </c>
       <c r="G4" t="str">
         <v>Apply</v>
       </c>
@@ -8057,6 +7415,12 @@
       <c r="D5" t="str">
         <v>Analytical Thinking</v>
       </c>
+      <c r="E5" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F5" t="str">
+        <v>Na</v>
+      </c>
       <c r="G5" t="str">
         <v>Apply</v>
       </c>
@@ -8086,6 +7450,12 @@
       <c r="D6" t="str">
         <v>Analytical Thinking</v>
       </c>
+      <c r="E6" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F6" t="str">
+        <v>Na</v>
+      </c>
       <c r="G6" t="str">
         <v>Apply</v>
       </c>
@@ -8115,6 +7485,12 @@
       <c r="D7" t="str">
         <v>Analytical Thinking</v>
       </c>
+      <c r="E7" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F7" t="str">
+        <v>Na</v>
+      </c>
       <c r="G7" t="str">
         <v>Apply</v>
       </c>
@@ -8144,6 +7520,12 @@
       <c r="D8" t="str">
         <v>Analytical Thinking</v>
       </c>
+      <c r="E8" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F8" t="str">
+        <v>Na</v>
+      </c>
       <c r="G8" t="str">
         <v>Apply</v>
       </c>
@@ -8173,6 +7555,12 @@
       <c r="D9" t="str">
         <v>Analytical Thinking</v>
       </c>
+      <c r="E9" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F9" t="str">
+        <v>Na</v>
+      </c>
       <c r="G9" t="str">
         <v>Apply</v>
       </c>
@@ -8202,6 +7590,12 @@
       <c r="D10" t="str">
         <v>Analytical Thinking</v>
       </c>
+      <c r="E10" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F10" t="str">
+        <v>Na</v>
+      </c>
       <c r="G10" t="str">
         <v>Apply</v>
       </c>
@@ -8231,6 +7625,12 @@
       <c r="D11" t="str">
         <v>Analytical Thinking</v>
       </c>
+      <c r="E11" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F11" t="str">
+        <v>Na</v>
+      </c>
       <c r="G11" t="str">
         <v>Apply</v>
       </c>
@@ -8260,6 +7660,12 @@
       <c r="D12" t="str">
         <v>Analytical Thinking</v>
       </c>
+      <c r="E12" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F12" t="str">
+        <v>Na</v>
+      </c>
       <c r="G12" t="str">
         <v>Apply</v>
       </c>
@@ -8289,6 +7695,12 @@
       <c r="D13" t="str">
         <v>Analytical Thinking</v>
       </c>
+      <c r="E13" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F13" t="str">
+        <v>Na</v>
+      </c>
       <c r="G13" t="str">
         <v>Apply</v>
       </c>
@@ -8318,6 +7730,12 @@
       <c r="D14" t="str">
         <v>Analytical Thinking</v>
       </c>
+      <c r="E14" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F14" t="str">
+        <v>Na</v>
+      </c>
       <c r="G14" t="str">
         <v>Apply</v>
       </c>
@@ -8347,6 +7765,12 @@
       <c r="D15" t="str">
         <v>Analytical Thinking</v>
       </c>
+      <c r="E15" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F15" t="str">
+        <v>Na</v>
+      </c>
       <c r="G15" t="str">
         <v>Apply</v>
       </c>
@@ -8376,6 +7800,12 @@
       <c r="D16" t="str">
         <v>Analytical Thinking</v>
       </c>
+      <c r="E16" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F16" t="str">
+        <v>Na</v>
+      </c>
       <c r="G16" t="str">
         <v>Apply</v>
       </c>
@@ -8405,6 +7835,12 @@
       <c r="D17" t="str">
         <v>Analytical Thinking</v>
       </c>
+      <c r="E17" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F17" t="str">
+        <v>Na</v>
+      </c>
       <c r="G17" t="str">
         <v>Apply</v>
       </c>
@@ -8434,6 +7870,12 @@
       <c r="D18" t="str">
         <v>Analytical Thinking</v>
       </c>
+      <c r="E18" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F18" t="str">
+        <v>Na</v>
+      </c>
       <c r="G18" t="str">
         <v>Apply</v>
       </c>
@@ -8463,6 +7905,12 @@
       <c r="D19" t="str">
         <v>Analytical Thinking</v>
       </c>
+      <c r="E19" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F19" t="str">
+        <v>Na</v>
+      </c>
       <c r="G19" t="str">
         <v>Apply</v>
       </c>
@@ -8492,6 +7940,12 @@
       <c r="D20" t="str">
         <v>Analytical Thinking</v>
       </c>
+      <c r="E20" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F20" t="str">
+        <v>Na</v>
+      </c>
       <c r="G20" t="str">
         <v>Analyze</v>
       </c>
@@ -8521,6 +7975,12 @@
       <c r="D21" t="str">
         <v>Analytical Thinking</v>
       </c>
+      <c r="E21" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F21" t="str">
+        <v>Na</v>
+      </c>
       <c r="G21" t="str">
         <v>Analyze</v>
       </c>
@@ -8550,6 +8010,12 @@
       <c r="D22" t="str">
         <v>Analytical Thinking</v>
       </c>
+      <c r="E22" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F22" t="str">
+        <v>Na</v>
+      </c>
       <c r="G22" t="str">
         <v>Analyze</v>
       </c>
@@ -8579,6 +8045,12 @@
       <c r="D23" t="str">
         <v>Analytical Thinking</v>
       </c>
+      <c r="E23" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F23" t="str">
+        <v>Na</v>
+      </c>
       <c r="G23" t="str">
         <v>Analyze</v>
       </c>
@@ -8608,6 +8080,12 @@
       <c r="D24" t="str">
         <v>Analytical Thinking</v>
       </c>
+      <c r="E24" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F24" t="str">
+        <v>Na</v>
+      </c>
       <c r="G24" t="str">
         <v>Analyze</v>
       </c>
@@ -8637,6 +8115,12 @@
       <c r="D25" t="str">
         <v>Analytical Thinking</v>
       </c>
+      <c r="E25" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F25" t="str">
+        <v>Na</v>
+      </c>
       <c r="G25" t="str">
         <v>Analyze</v>
       </c>
@@ -8666,6 +8150,12 @@
       <c r="D26" t="str">
         <v>Analytical Thinking</v>
       </c>
+      <c r="E26" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F26" t="str">
+        <v>Na</v>
+      </c>
       <c r="G26" t="str">
         <v>Analyze</v>
       </c>
@@ -8695,6 +8185,12 @@
       <c r="D27" t="str">
         <v>Analytical Thinking</v>
       </c>
+      <c r="E27" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F27" t="str">
+        <v>Na</v>
+      </c>
       <c r="G27" t="str">
         <v>Analyze</v>
       </c>
@@ -8724,6 +8220,12 @@
       <c r="D28" t="str">
         <v>Analytical Thinking</v>
       </c>
+      <c r="E28" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F28" t="str">
+        <v>Na</v>
+      </c>
       <c r="G28" t="str">
         <v>Analyze</v>
       </c>
@@ -8753,6 +8255,12 @@
       <c r="D29" t="str">
         <v>Analytical Thinking</v>
       </c>
+      <c r="E29" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F29" t="str">
+        <v>Na</v>
+      </c>
       <c r="G29" t="str">
         <v>Analyze</v>
       </c>
@@ -8782,6 +8290,12 @@
       <c r="D30" t="str">
         <v>Analytical Thinking</v>
       </c>
+      <c r="E30" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F30" t="str">
+        <v>Na</v>
+      </c>
       <c r="G30" t="str">
         <v>Apply</v>
       </c>
@@ -8811,6 +8325,12 @@
       <c r="D31" t="str">
         <v>Analytical Thinking</v>
       </c>
+      <c r="E31" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F31" t="str">
+        <v>Na</v>
+      </c>
       <c r="G31" t="str">
         <v>Apply</v>
       </c>
@@ -8840,6 +8360,12 @@
       <c r="D32" t="str">
         <v>Analytical Thinking</v>
       </c>
+      <c r="E32" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F32" t="str">
+        <v>Na</v>
+      </c>
       <c r="G32" t="str">
         <v>Apply</v>
       </c>
@@ -8869,6 +8395,12 @@
       <c r="D33" t="str">
         <v>Analytical Thinking</v>
       </c>
+      <c r="E33" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F33" t="str">
+        <v>Na</v>
+      </c>
       <c r="G33" t="str">
         <v>Apply</v>
       </c>
@@ -8898,6 +8430,12 @@
       <c r="D34" t="str">
         <v>Reflective Thinking</v>
       </c>
+      <c r="E34" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F34" t="str">
+        <v>Na</v>
+      </c>
       <c r="G34" t="str">
         <v>Analyze</v>
       </c>
@@ -8927,6 +8465,12 @@
       <c r="D35" t="str">
         <v>Reflective Thinking</v>
       </c>
+      <c r="E35" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F35" t="str">
+        <v>Na</v>
+      </c>
       <c r="G35" t="str">
         <v>Analyze</v>
       </c>
@@ -8956,6 +8500,12 @@
       <c r="D36" t="str">
         <v>Reflective Thinking</v>
       </c>
+      <c r="E36" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F36" t="str">
+        <v>Na</v>
+      </c>
       <c r="G36" t="str">
         <v>Apply</v>
       </c>
@@ -8985,6 +8535,12 @@
       <c r="D37" t="str">
         <v>Reflective Thinking</v>
       </c>
+      <c r="E37" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F37" t="str">
+        <v>Na</v>
+      </c>
       <c r="G37" t="str">
         <v>Apply</v>
       </c>
@@ -9014,6 +8570,12 @@
       <c r="D38" t="str">
         <v>Reflective Thinking</v>
       </c>
+      <c r="E38" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F38" t="str">
+        <v>Na</v>
+      </c>
       <c r="G38" t="str">
         <v>Apply</v>
       </c>
@@ -9043,6 +8605,12 @@
       <c r="D39" t="str">
         <v>Reflective Thinking</v>
       </c>
+      <c r="E39" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F39" t="str">
+        <v>Na</v>
+      </c>
       <c r="G39" t="str">
         <v>Apply</v>
       </c>
@@ -9072,6 +8640,12 @@
       <c r="D40" t="str">
         <v>Reflective Thinking</v>
       </c>
+      <c r="E40" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F40" t="str">
+        <v>Na</v>
+      </c>
       <c r="G40" t="str">
         <v>Apply</v>
       </c>
@@ -9101,6 +8675,12 @@
       <c r="D41" t="str">
         <v>Reflective Thinking</v>
       </c>
+      <c r="E41" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F41" t="str">
+        <v>Na</v>
+      </c>
       <c r="G41" t="str">
         <v>Apply</v>
       </c>
@@ -9130,6 +8710,12 @@
       <c r="D42" t="str">
         <v>Reflective Thinking</v>
       </c>
+      <c r="E42" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F42" t="str">
+        <v>Na</v>
+      </c>
       <c r="G42" t="str">
         <v>Apply</v>
       </c>
@@ -9159,6 +8745,12 @@
       <c r="D43" t="str">
         <v>Reflective Thinking</v>
       </c>
+      <c r="E43" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F43" t="str">
+        <v>Na</v>
+      </c>
       <c r="G43" t="str">
         <v>Apply</v>
       </c>
@@ -9188,6 +8780,12 @@
       <c r="D44" t="str">
         <v>Reflective Thinking</v>
       </c>
+      <c r="E44" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F44" t="str">
+        <v>Na</v>
+      </c>
       <c r="G44" t="str">
         <v>Apply</v>
       </c>
@@ -9217,6 +8815,12 @@
       <c r="D45" t="str">
         <v>Reflective Thinking</v>
       </c>
+      <c r="E45" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F45" t="str">
+        <v>Na</v>
+      </c>
       <c r="G45" t="str">
         <v>Apply</v>
       </c>
@@ -9246,6 +8850,12 @@
       <c r="D46" t="str">
         <v>Reflective Thinking</v>
       </c>
+      <c r="E46" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F46" t="str">
+        <v>Na</v>
+      </c>
       <c r="G46" t="str">
         <v>Apply</v>
       </c>
@@ -9275,6 +8885,12 @@
       <c r="D47" t="str">
         <v>Reflective Thinking</v>
       </c>
+      <c r="E47" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F47" t="str">
+        <v>Na</v>
+      </c>
       <c r="G47" t="str">
         <v>Apply</v>
       </c>
@@ -9304,6 +8920,12 @@
       <c r="D48" t="str">
         <v>Reflective Thinking</v>
       </c>
+      <c r="E48" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F48" t="str">
+        <v>Na</v>
+      </c>
       <c r="G48" t="str">
         <v>Apply</v>
       </c>
@@ -9333,6 +8955,12 @@
       <c r="D49" t="str">
         <v>Reflective Thinking</v>
       </c>
+      <c r="E49" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F49" t="str">
+        <v>Na</v>
+      </c>
       <c r="G49" t="str">
         <v>Apply</v>
       </c>
@@ -9362,6 +8990,12 @@
       <c r="D50" t="str">
         <v>Reflective Thinking</v>
       </c>
+      <c r="E50" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F50" t="str">
+        <v>Na</v>
+      </c>
       <c r="G50" t="str">
         <v>Apply</v>
       </c>
@@ -9391,6 +9025,12 @@
       <c r="D51" t="str">
         <v>Reflective Thinking</v>
       </c>
+      <c r="E51" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F51" t="str">
+        <v>Na</v>
+      </c>
       <c r="G51" t="str">
         <v>Apply</v>
       </c>
@@ -9420,6 +9060,12 @@
       <c r="D52" t="str">
         <v>Reflective Thinking</v>
       </c>
+      <c r="E52" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F52" t="str">
+        <v>Na</v>
+      </c>
       <c r="G52" t="str">
         <v>Apply</v>
       </c>
@@ -9449,6 +9095,12 @@
       <c r="D53" t="str">
         <v>Reflective Thinking</v>
       </c>
+      <c r="E53" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F53" t="str">
+        <v>Na</v>
+      </c>
       <c r="G53" t="str">
         <v>Apply</v>
       </c>
@@ -9478,6 +9130,12 @@
       <c r="D54" t="str">
         <v>Analytical Thinking; Reflective Thinking</v>
       </c>
+      <c r="E54" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F54" t="str">
+        <v>Na</v>
+      </c>
       <c r="G54" t="str">
         <v>Apply</v>
       </c>
@@ -9507,6 +9165,12 @@
       <c r="D55" t="str">
         <v>Analytical Thinking; Reflective Thinking</v>
       </c>
+      <c r="E55" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F55" t="str">
+        <v>Na</v>
+      </c>
       <c r="G55" t="str">
         <v>Apply</v>
       </c>
@@ -9536,6 +9200,12 @@
       <c r="D56" t="str">
         <v>Analytical Thinking; Reflective Thinking</v>
       </c>
+      <c r="E56" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F56" t="str">
+        <v>Na</v>
+      </c>
       <c r="G56" t="str">
         <v>Apply</v>
       </c>
@@ -9565,6 +9235,12 @@
       <c r="D57" t="str">
         <v>Analytical Thinking; Reflective Thinking</v>
       </c>
+      <c r="E57" t="str">
+        <v>Na</v>
+      </c>
+      <c r="F57" t="str">
+        <v>Na</v>
+      </c>
       <c r="G57" t="str">
         <v>Apply</v>
       </c>
@@ -9579,499 +9255,19 @@
       </c>
       <c r="K57" t="str">
         <v>Comprehensive Problem</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="str">
-        <v>TF4-01</v>
-      </c>
-      <c r="B58" t="str">
-        <v xml:space="preserve"> 04-01</v>
-      </c>
-      <c r="C58" t="str">
-        <v xml:space="preserve"> The Individual Income Tax Formula</v>
-      </c>
-      <c r="D58" t="str">
-        <v>Reflective Thinking</v>
-      </c>
-      <c r="E58" t="str">
-        <v>BB Critical Thinking</v>
-      </c>
-      <c r="G58" t="str">
-        <v>Understand</v>
-      </c>
-      <c r="H58" t="str">
-        <v>1 Easy</v>
-      </c>
-      <c r="I58" t="str">
-        <v>10 min</v>
-      </c>
-      <c r="J58" t="str">
-        <v>s</v>
-      </c>
-      <c r="K58" t="str">
-        <v>True / False</v>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="str">
-        <v>TF4-02</v>
-      </c>
-      <c r="B59" t="str">
-        <v xml:space="preserve"> 04-01</v>
-      </c>
-      <c r="C59" t="str">
-        <v xml:space="preserve"> The Individual Income Tax Formula</v>
-      </c>
-      <c r="D59" t="str">
-        <v>Reflective Thinking</v>
-      </c>
-      <c r="E59" t="str">
-        <v>BB Critical Thinking</v>
-      </c>
-      <c r="G59" t="str">
-        <v>Understand</v>
-      </c>
-      <c r="H59" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I59" t="str">
-        <v>15 min</v>
-      </c>
-      <c r="J59" t="str">
-        <v>s</v>
-      </c>
-      <c r="K59" t="str">
-        <v>True / False</v>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="str">
-        <v>TF4-03</v>
-      </c>
-      <c r="B60" t="str">
-        <v xml:space="preserve"> 04-02</v>
-      </c>
-      <c r="C60" t="str">
-        <v xml:space="preserve"> Personal and Dependency Exemptions</v>
-      </c>
-      <c r="D60" t="str">
-        <v>Reflective Thinking</v>
-      </c>
-      <c r="E60" t="str">
-        <v>BB Critical Thinking</v>
-      </c>
-      <c r="G60" t="str">
-        <v>Understand</v>
-      </c>
-      <c r="H60" t="str">
-        <v>3 Hard</v>
-      </c>
-      <c r="I60" t="str">
-        <v>15 min</v>
-      </c>
-      <c r="J60" t="str">
-        <v>s</v>
-      </c>
-      <c r="K60" t="str">
-        <v>True / False</v>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" t="str">
-        <v>TF4-04</v>
-      </c>
-      <c r="B61" t="str">
-        <v xml:space="preserve"> 04-02</v>
-      </c>
-      <c r="C61" t="str">
-        <v xml:space="preserve"> Personal and Dependency Exemptions</v>
-      </c>
-      <c r="D61" t="str">
-        <v>Reflective Thinking</v>
-      </c>
-      <c r="E61" t="str">
-        <v>BB Critical Thinking</v>
-      </c>
-      <c r="G61" t="str">
-        <v>Understand</v>
-      </c>
-      <c r="H61" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I61" t="str">
-        <v>15 min</v>
-      </c>
-      <c r="J61" t="str">
-        <v>s</v>
-      </c>
-      <c r="K61" t="str">
-        <v>True / False</v>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="str">
-        <v>TF4-05</v>
-      </c>
-      <c r="B62" t="str">
-        <v xml:space="preserve"> 04-03</v>
-      </c>
-      <c r="C62" t="str">
-        <v xml:space="preserve"> Filing Status</v>
-      </c>
-      <c r="D62" t="str">
-        <v>Reflective Thinking</v>
-      </c>
-      <c r="E62" t="str">
-        <v>BB Critical Thinking</v>
-      </c>
-      <c r="G62" t="str">
-        <v>Understand</v>
-      </c>
-      <c r="H62" t="str">
-        <v>1 Easy</v>
-      </c>
-      <c r="I62" t="str">
-        <v>10 min</v>
-      </c>
-      <c r="J62" t="str">
-        <v>s</v>
-      </c>
-      <c r="K62" t="str">
-        <v>True / False</v>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="str">
-        <v>TF4-06</v>
-      </c>
-      <c r="B63" t="str">
-        <v xml:space="preserve"> 04-03</v>
-      </c>
-      <c r="C63" t="str">
-        <v xml:space="preserve"> Filing Status</v>
-      </c>
-      <c r="D63" t="str">
-        <v>Reflective Thinking</v>
-      </c>
-      <c r="E63" t="str">
-        <v>BB Critical Thinking</v>
-      </c>
-      <c r="G63" t="str">
-        <v>Analyze</v>
-      </c>
-      <c r="H63" t="str">
-        <v>3 Hard</v>
-      </c>
-      <c r="I63" t="str">
-        <v>35 min</v>
-      </c>
-      <c r="J63" t="str">
-        <v>s</v>
-      </c>
-      <c r="K63" t="str">
-        <v>True / False</v>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" t="str">
-        <v>MC4-07</v>
-      </c>
-      <c r="B64" t="str">
-        <v xml:space="preserve"> 04-03</v>
-      </c>
-      <c r="C64" t="str">
-        <v xml:space="preserve"> Filing Status</v>
-      </c>
-      <c r="D64" t="str">
-        <v>Reflective Thinking</v>
-      </c>
-      <c r="E64" t="str">
-        <v>BB Critical Thinking</v>
-      </c>
-      <c r="G64" t="str">
-        <v>Analyze</v>
-      </c>
-      <c r="H64" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I64" t="str">
-        <v>15 min</v>
-      </c>
-      <c r="J64" t="str">
-        <v>s</v>
-      </c>
-      <c r="K64" t="str">
-        <v>Multiple Choice</v>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="str">
-        <v>MC4-08</v>
-      </c>
-      <c r="B65" t="str">
-        <v xml:space="preserve"> 04-01</v>
-      </c>
-      <c r="C65" t="str">
-        <v xml:space="preserve"> The Individual Income Tax Formula</v>
-      </c>
-      <c r="D65" t="str">
-        <v>Analytical Thinking; Reflective Thinking</v>
-      </c>
-      <c r="E65" t="str">
-        <v>BB Critical Thinking</v>
-      </c>
-      <c r="G65" t="str">
-        <v>Analyze</v>
-      </c>
-      <c r="H65" t="str">
-        <v>1 Easy</v>
-      </c>
-      <c r="I65" t="str">
-        <v>10 min</v>
-      </c>
-      <c r="J65" t="str">
-        <v>s</v>
-      </c>
-      <c r="K65" t="str">
-        <v>Multiple Choice</v>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" t="str">
-        <v>MC4-09</v>
-      </c>
-      <c r="B66" t="str">
-        <v xml:space="preserve"> 04-01</v>
-      </c>
-      <c r="C66" t="str">
-        <v xml:space="preserve"> The Individual Income Tax Formula</v>
-      </c>
-      <c r="D66" t="str">
-        <v>Reflective Thinking</v>
-      </c>
-      <c r="E66" t="str">
-        <v>BB Critical Thinking</v>
-      </c>
-      <c r="G66" t="str">
-        <v>Understand</v>
-      </c>
-      <c r="H66" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I66" t="str">
-        <v>10 min</v>
-      </c>
-      <c r="J66" t="str">
-        <v>s</v>
-      </c>
-      <c r="K66" t="str">
-        <v>Multiple Choice</v>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="str">
-        <v>MC4-10</v>
-      </c>
-      <c r="B67" t="str">
-        <v xml:space="preserve"> 04-01</v>
-      </c>
-      <c r="C67" t="str">
-        <v xml:space="preserve"> The Individual Income Tax Formula</v>
-      </c>
-      <c r="D67" t="str">
-        <v>Reflective Thinking</v>
-      </c>
-      <c r="E67" t="str">
-        <v>BB Critical Thinking</v>
-      </c>
-      <c r="G67" t="str">
-        <v>Understand</v>
-      </c>
-      <c r="H67" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I67" t="str">
-        <v>10 min</v>
-      </c>
-      <c r="J67" t="str">
-        <v>s</v>
-      </c>
-      <c r="K67" t="str">
-        <v>Multiple Choice</v>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="str">
-        <v>MC4-11</v>
-      </c>
-      <c r="B68" t="str">
-        <v xml:space="preserve"> 04-02</v>
-      </c>
-      <c r="C68" t="str">
-        <v xml:space="preserve"> Personal and Dependency Exemptions</v>
-      </c>
-      <c r="D68" t="str">
-        <v>Analytical Thinking; Reflective Thinking</v>
-      </c>
-      <c r="E68" t="str">
-        <v>BB Critical Thinking</v>
-      </c>
-      <c r="G68" t="str">
-        <v>Analyze</v>
-      </c>
-      <c r="H68" t="str">
-        <v>3 Hard</v>
-      </c>
-      <c r="I68" t="str">
-        <v>25 min</v>
-      </c>
-      <c r="J68" t="str">
-        <v>s</v>
-      </c>
-      <c r="K68" t="str">
-        <v>Multiple Choice</v>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="str">
-        <v>MC4-12</v>
-      </c>
-      <c r="B69" t="str">
-        <v xml:space="preserve"> 04-03</v>
-      </c>
-      <c r="C69" t="str">
-        <v xml:space="preserve"> Filing Status</v>
-      </c>
-      <c r="D69" t="str">
-        <v>Reflective Thinking</v>
-      </c>
-      <c r="E69" t="str">
-        <v>BB Critical Thinking</v>
-      </c>
-      <c r="G69" t="str">
-        <v>Understand</v>
-      </c>
-      <c r="H69" t="str">
-        <v>3 Hard</v>
-      </c>
-      <c r="I69" t="str">
-        <v>20 min</v>
-      </c>
-      <c r="J69" t="str">
-        <v>s</v>
-      </c>
-      <c r="K69" t="str">
-        <v>Multiple Choice</v>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" t="str">
-        <v>MC4-13</v>
-      </c>
-      <c r="B70" t="str">
-        <v xml:space="preserve"> 04-03</v>
-      </c>
-      <c r="C70" t="str">
-        <v xml:space="preserve"> Filing Status</v>
-      </c>
-      <c r="D70" t="str">
-        <v>Reflective Thinking</v>
-      </c>
-      <c r="E70" t="str">
-        <v>BB Critical Thinking</v>
-      </c>
-      <c r="G70" t="str">
-        <v>Analyze</v>
-      </c>
-      <c r="H70" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I70" t="str">
-        <v>15 min</v>
-      </c>
-      <c r="J70" t="str">
-        <v>s</v>
-      </c>
-      <c r="K70" t="str">
-        <v>Multiple Choice</v>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="str">
-        <v>MC4-14</v>
-      </c>
-      <c r="B71" t="str">
-        <v xml:space="preserve"> 04-03</v>
-      </c>
-      <c r="C71" t="str">
-        <v xml:space="preserve"> Filing Status</v>
-      </c>
-      <c r="D71" t="str">
-        <v>Reflective Thinking</v>
-      </c>
-      <c r="E71" t="str">
-        <v>BB Critical Thinking</v>
-      </c>
-      <c r="G71" t="str">
-        <v>Analyze</v>
-      </c>
-      <c r="H71" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I71" t="str">
-        <v>10 min</v>
-      </c>
-      <c r="J71" t="str">
-        <v>s</v>
-      </c>
-      <c r="K71" t="str">
-        <v>Multiple Choice</v>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="str">
-        <v>MC4-15</v>
-      </c>
-      <c r="B72" t="str">
-        <v xml:space="preserve"> 04-03</v>
-      </c>
-      <c r="C72" t="str">
-        <v xml:space="preserve"> Filing Status</v>
-      </c>
-      <c r="D72" t="str">
-        <v>Reflective Thinking</v>
-      </c>
-      <c r="E72" t="str">
-        <v>BB Critical Thinking</v>
-      </c>
-      <c r="G72" t="str">
-        <v>Analyze</v>
-      </c>
-      <c r="H72" t="str">
-        <v>2 Medium</v>
-      </c>
-      <c r="I72" t="str">
-        <v>15 min</v>
-      </c>
-      <c r="J72" t="str">
-        <v>s</v>
-      </c>
-      <c r="K72" t="str">
-        <v>Multiple Choice</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:K72"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:K57"/>
   </ignoredErrors>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A4"/>
   <sheetViews>
     <sheetView workbookViewId="0" rightToLeft="0"/>
   </sheetViews>
@@ -10083,58 +9279,23 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>01-01  Define tax, taxpayer, incidence, and jurisdiction.</v>
+        <v>LO 4-1 Describe the formula for calculating an individual taxpayer’s taxes due or refund.</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>01-02  Express the relationship between tax base, rate, and revenue as a formula.</v>
+        <v>LO 4-2 Explain the requirements for determining who qualifies as a taxpayer’s dependent.</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>01-03  Describe the taxes levied by local governments.</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" t="str">
-        <v>01-04  Describe the taxes levied by state governments.</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="str">
-        <v>01-05  Describe the taxes levied by the federal government.</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="str">
-        <v>01-06  Explain the structure of the value-added tax levied by foreign governments.</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="str">
-        <v>02-01  Explain the concept of sufficiency of a good tax.</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="str">
-        <v>02-02  Differentiate between the income effect and the substitution effect.</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="str">
-        <v>02-06  Differentiate between regressive, proportionate, and progressive rate structures.</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="str">
-        <v>02-07  Explain the difference between marginal and average tax rates.</v>
+        <v>LO 4-3 Determine a taxpayer’s filing status.</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:A11"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:A4"/>
   </ignoredErrors>
 </worksheet>
 </file>